--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="227">
   <si>
     <t>Nr</t>
   </si>
@@ -342,9 +342,6 @@
     <t xml:space="preserve">Assessment of paired binary data </t>
   </si>
   <si>
-    <t>math</t>
-  </si>
-  <si>
     <t>Bayesian Predictive Power: Choice of Prior and some Recommendations for its Use as Probability of Success in Drug Development</t>
   </si>
   <si>
@@ -552,15 +549,9 @@
     <t xml:space="preserve">Biostatistical considerations when using RWD and RWE in clinical studies for regulatory purposes: A landscape assessment </t>
   </si>
   <si>
-    <t>Collignon</t>
-  </si>
-  <si>
     <t>Estimands and Complex Innovative Designs</t>
   </si>
   <si>
-    <t>Ionan</t>
-  </si>
-  <si>
     <t>Clinical and Statistical Perspectives on the Estimand Framework Implementation</t>
   </si>
   <si>
@@ -570,15 +561,9 @@
     <t>Cancer Clinical Trials Beyond Pandemic: Report of an American Statistical Association Biopharmaceutical Section Open Forum Discussion</t>
   </si>
   <si>
-    <t>Polito</t>
-  </si>
-  <si>
     <t>Applying the Estimand and Target Trial frameworks to external control analyses using observational data: a case study in the solid tumor setting</t>
   </si>
   <si>
-    <t>Erdmann</t>
-  </si>
-  <si>
     <t>Oncology clinical trial design planning based on a multistate model that jointly models progression-free and overall survival endpoints</t>
   </si>
   <si>
@@ -594,9 +579,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Rufibach, K., Grinsted, L., Li, J., Weber, H.-J., Zheng, C. Zhou, J.</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -621,19 +603,106 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Rufibach, K., Stegherr, R., Schmoor, C., Jehl, V., Allignol, A., Boeckenhoff, A., Dunger-Baldauf, C., Eisele, L., K\"unzel, T., Kupas, K., Leverkus, F., Trampisch, M., Zhao, Y., Friede, Beyersmann, J.</t>
-  </si>
-  <si>
     <t>Statistics in Biopharmaceutical Research</t>
   </si>
   <si>
-    <t>Rajeshwari, S., Barksdale, E., Marchenko, O., Jiang, Q., Ando, Y., Bloomquist, E., Coory, M., Crouse, M., Degtyarev, E., Framke, T., Freidlin, B., Gerber, D.E., Gwise, T., Josephson, F., Hess, L., Kluetz, P., Li, D., Mandrekar, S., Posch, M., Rantell, K., Ratitch, B., Raven, A., Roes, K., Rufibach, K., Sarac, S.B., Simon, R., Singh, H., Theoret, M., Thomson, A., Zuber, E., Shen, Y.L., Pazdur, R.</t>
-  </si>
-  <si>
     <t>444-449</t>
   </si>
   <si>
     <t>671-691</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>arxiv</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>cran</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>shiny</t>
+  </si>
+  <si>
+    <t>Erdmann, A., Beyersmann, J., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Grinsted, L., Li, J., Weber, H.-J., Zheng, C. Zhou, J.</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Stegherr, R., Schmoor, C., Jehl, V., Allignol, A., Boeckenhoff, A., Dunger-Baldauf, C., Eisele, L., K\"unzel, T., Kupas, K., Leverkus, F., Trampisch, M., Zhao, Y., Friede, Beyersmann, J.</t>
+  </si>
+  <si>
+    <t>Rajeshwari, S., Barksdale, E., Marchenko, O., Jiang, Q., Ando, Y., Bloomquist, E., Coory, M., Crouse, M., Degtyarev, E., Framke, T., Freidlin, B., Gerber, D.E., Gwise, T., Josephson, F., Hess, L., Kluetz, P., Li, D., Mandrekar, S., Posch, M., Rantell, K., Ratitch, B., Raven, A., Roes, K., **Rufibach, K.**, Sarac, S.B., Simon, R., Singh, H., Theoret, M., Thomson, A., Zuber, E., Shen, Y.L., Pazdur, R.</t>
+  </si>
+  <si>
+    <t>2023+</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.10059</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pst.2300</t>
+  </si>
+  <si>
+    <t>Articles in statistical journals</t>
+  </si>
+  <si>
+    <t>Polito, L., Liang, Q., Pal, N., Mpofu, P., Sawas, A., Humblet, O. **Rufibach, K.**, Heinzmann, D.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.06707</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_oncology-multistate-survivalanalysis-activity-7024352913275678720-f1p1?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=simIDM</t>
+  </si>
+  <si>
+    <t>https://github.com/insightsengineering/simIDM</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2206.05216</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/quantFU/quantFU.html</t>
+  </si>
+  <si>
+    <t>Ionan, A.C., Paterniti, M., Mehrotra, D., Scott, J., Ratitch, B., Collins, S., Gomatam, S., Nie, L., **Rufibach, K.**, Bretz, F.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2022.2081601</t>
+  </si>
+  <si>
+    <t>Collignon, O., Schiel, A., Burman, C.F., {\bf Rufibach, K.}, Posch, M., Bretz, F.</t>
+  </si>
+  <si>
+    <t>Clinical Pharmacology \&amp; Therapeutics</t>
+  </si>
+  <si>
+    <t>118-1190</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/cpt.2575</t>
   </si>
 </sst>
 </file>
@@ -1069,36 +1138,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16" width="11" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
+    <col min="13" max="18" width="25.85546875" style="2" customWidth="1"/>
+    <col min="19" max="20" width="25.85546875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1106,86 +1173,140 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>191</v>
+      <c r="D1" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2">
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2">
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="1">
+        <v>206</v>
+      </c>
+      <c r="D4" s="2">
         <v>2023</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H4" s="2">
         <v>22</v>
@@ -1194,53 +1315,62 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2">
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="1">
+        <v>207</v>
+      </c>
+      <c r="D5" s="2">
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B6" s="2">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="1">
+        <v>208</v>
+      </c>
+      <c r="D6" s="2">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H6" s="2">
         <v>15</v>
@@ -1249,182 +1379,209 @@
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B7" s="2">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>221</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>223</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2022</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="2">
+        <v>112</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B9" s="2">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B12" s="2">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2">
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B15" s="2">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B16" s="2">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2">
         <v>25</v>
@@ -1433,49 +1590,49 @@
         <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2">
         <v>22</v>
@@ -1484,15 +1641,15 @@
         <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2">
         <v>21</v>
@@ -1501,32 +1658,32 @@
         <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -1535,15 +1692,15 @@
         <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2">
         <v>18</v>
@@ -1552,49 +1709,49 @@
         <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2">
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2">
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2">
         <v>15</v>
@@ -1603,15 +1760,15 @@
         <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2">
         <v>14</v>
@@ -1620,66 +1777,66 @@
         <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B31" s="2">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
@@ -1688,15 +1845,15 @@
         <v>98</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1705,15 +1862,15 @@
         <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2">
         <v>8</v>
@@ -1722,100 +1879,100 @@
         <v>98</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B35" s="2">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2">
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -1824,15 +1981,15 @@
         <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1841,15 +1998,15 @@
         <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -1858,49 +2015,49 @@
         <v>98</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -1909,30 +2066,30 @@
         <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1940,13 +2097,13 @@
         <v>60</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -1960,13 +2117,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1977,10 +2134,10 @@
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1991,13 +2148,13 @@
         <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2008,13 +2165,13 @@
         <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2031,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2048,10 +2205,10 @@
         <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2082,7 +2239,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2099,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2116,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2133,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2150,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2167,10 +2324,10 @@
         <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -2181,10 +2338,10 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2198,13 +2355,13 @@
         <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -2218,7 +2375,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2235,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2252,10 +2409,10 @@
         <v>24</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -2269,10 +2426,10 @@
         <v>26</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -2286,10 +2443,10 @@
         <v>28</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2320,7 +2477,7 @@
         <v>31</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2337,7 +2494,7 @@
         <v>33</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2354,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2371,7 +2528,7 @@
         <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2388,10 +2545,10 @@
         <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -2405,7 +2562,7 @@
         <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2422,7 +2579,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2439,10 +2596,10 @@
         <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -2456,10 +2613,10 @@
         <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -2473,10 +2630,10 @@
         <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -2490,10 +2647,10 @@
         <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +2664,7 @@
         <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2518,16 +2675,16 @@
         <v>27</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -2541,7 +2698,7 @@
         <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2558,10 +2715,10 @@
         <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -2575,7 +2732,7 @@
         <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2592,10 +2749,10 @@
         <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -2609,10 +2766,10 @@
         <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -2626,10 +2783,10 @@
         <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -2643,10 +2800,10 @@
         <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -2660,10 +2817,10 @@
         <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -2677,7 +2834,7 @@
         <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2694,10 +2851,10 @@
         <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -2711,7 +2868,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,10 +2885,10 @@
         <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2902,7 @@
         <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2762,7 +2919,7 @@
         <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2779,7 +2936,7 @@
         <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2796,7 +2953,7 @@
         <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2813,7 +2970,7 @@
         <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2830,7 +2987,7 @@
         <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2847,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2864,10 +3021,10 @@
         <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -2881,10 +3038,10 @@
         <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -2898,10 +3055,10 @@
         <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -2915,10 +3072,10 @@
         <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -2932,10 +3089,10 @@
         <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +3106,7 @@
         <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2966,7 +3123,7 @@
         <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -2983,7 +3140,7 @@
         <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3000,7 +3157,7 @@
         <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3017,10 +3174,10 @@
         <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
@@ -3034,7 +3191,7 @@
         <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="375">
   <si>
     <t>Nr</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Bayesian Predictive Power: Choice of Prior and some Recommendations for its Use as Probability of Success in Drug Development</t>
   </si>
   <si>
-    <t>Asikanius</t>
-  </si>
-  <si>
     <t>Comparison of design strategies for a three-arm clinical trial with time-to-event endpoint</t>
   </si>
   <si>
@@ -357,75 +354,12 @@
     <t>Sequentially Updating the Likelihood of Success of a Phase 3 Pivotal Time-To-Event Trial based on Interim Analyses or External Information</t>
   </si>
   <si>
-    <t>Dümbgen</t>
-  </si>
-  <si>
     <t>Maximum-Likelihood Estimation of a Log-Concave Density based on Censored Data</t>
   </si>
   <si>
-    <t>Balabdaoui</t>
-  </si>
-  <si>
     <t>Asymptotics of the discrete log-concave maximum likelihood estimator and related applications</t>
   </si>
   <si>
-    <t xml:space="preserve">A smooth ROC curve estimator based on log-concave density estimates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection models with monotone weight functions in meta analysis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">logcondens: Computations Related to Univariate Log-Concave Density Estimation. </t>
-  </si>
-  <si>
-    <t>Held</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A score regression approach to assess calibration of probabilistic predictions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least Squares estimation of two ordered monotone regression curves. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The block criterion for multiscale inference about a density  with applications to other multiscale problems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Active Set Algorithm to Estimate Parameters in Generalized Linear Models with Ordered Predictors. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reporttools: R Functions to Generate LaTeX Tables of Descriptive Statistics. </t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth tail index estimation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit distribution theory for maximum likelihood estimation of a log-concave density. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum likelihood estimation of a log-concave density and its distribution function: basic properties and uniform consistency. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the max-domain of attraction of distributions with log-concave densities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A second Marshall inequality in convex estimation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computing Maximum Likelihood Estimators of a log-concave Density Function. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eintrittsraten und Austrittswahrscheinlichkeiten EVK 2000. </t>
-  </si>
-  <si>
-    <t>mathDisc</t>
-  </si>
-  <si>
-    <t>mathProc</t>
-  </si>
-  <si>
     <t>Criteria for multiscale inference</t>
   </si>
   <si>
@@ -459,12 +393,6 @@
     <t>Treatment Effect Quantification for Time-to-event Endpoints - Estimands, Analysis Strategies, and beyond</t>
   </si>
   <si>
-    <t>Beyer</t>
-  </si>
-  <si>
-    <t>Meller</t>
-  </si>
-  <si>
     <t>A multistate model for early decision making in oncology</t>
   </si>
   <si>
@@ -477,9 +405,6 @@
     <t>MRI of the sacroiliac joints in athletes: Recognition of non-specific bone marrow edema by semi-axial added to standard semi-coronal scans</t>
   </si>
   <si>
-    <t>Stegherr</t>
-  </si>
-  <si>
     <t>Survival analysis for AdVerse events with VarYing follow-up times (SAVVY): Rationale and statistical concept of a meta-analytic study</t>
   </si>
   <si>
@@ -489,24 +414,9 @@
     <t>What is an estimand and how does it relate to quantifying the effect of treatment on patient-reported quality of life outcomes in clinical trials</t>
   </si>
   <si>
-    <t>Degtyarev</t>
-  </si>
-  <si>
     <t>Assessing the impact of COVID-19 on the objective and analysis of oncology clinical trials - application of the estimand framework</t>
   </si>
   <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Manitz</t>
-  </si>
-  <si>
-    <t>Kunzmann</t>
-  </si>
-  <si>
-    <t>Bornkamp</t>
-  </si>
-  <si>
     <t>Principal Stratum Strategy: Potential Role in Drug Development</t>
   </si>
   <si>
@@ -528,9 +438,6 @@
     <t>Phase III Clinical Trials in First-Line Follicular Lymphoma: A Review of Their Design and Interpretation</t>
   </si>
   <si>
-    <t>mathLetter</t>
-  </si>
-  <si>
     <t>Survival analysis for AdVerse events with VarYing follow-up times (SAVVY): Estimation of adverse event risks</t>
   </si>
   <si>
@@ -600,9 +507,6 @@
     <t>Pages</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Statistics in Biopharmaceutical Research</t>
   </si>
   <si>
@@ -645,9 +549,6 @@
     <t>**Rufibach, K.**, Grinsted, L., Li, J., Weber, H.-J., Zheng, C. Zhou, J.</t>
   </si>
   <si>
-    <t>**Rufibach, K.**, Stegherr, R., Schmoor, C., Jehl, V., Allignol, A., Boeckenhoff, A., Dunger-Baldauf, C., Eisele, L., K\"unzel, T., Kupas, K., Leverkus, F., Trampisch, M., Zhao, Y., Friede, Beyersmann, J.</t>
-  </si>
-  <si>
     <t>Rajeshwari, S., Barksdale, E., Marchenko, O., Jiang, Q., Ando, Y., Bloomquist, E., Coory, M., Crouse, M., Degtyarev, E., Framke, T., Freidlin, B., Gerber, D.E., Gwise, T., Josephson, F., Hess, L., Kluetz, P., Li, D., Mandrekar, S., Posch, M., Rantell, K., Ratitch, B., Raven, A., Roes, K., **Rufibach, K.**, Sarac, S.B., Simon, R., Singh, H., Theoret, M., Thomson, A., Zuber, E., Shen, Y.L., Pazdur, R.</t>
   </si>
   <si>
@@ -693,9 +594,6 @@
     <t>https://doi.org/10.1080/19466315.2022.2081601</t>
   </si>
   <si>
-    <t>Collignon, O., Schiel, A., Burman, C.F., {\bf Rufibach, K.}, Posch, M., Bretz, F.</t>
-  </si>
-  <si>
     <t>Clinical Pharmacology \&amp; Therapeutics</t>
   </si>
   <si>
@@ -703,6 +601,552 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/cpt.2575</t>
+  </si>
+  <si>
+    <t>Collignon, O., Schiel, A., Burman, C.F., **Rufibach, K.**, Posch, M., Bretz, F.</t>
+  </si>
+  <si>
+    <t>Kunzmann, K, Grayling, M.J., Lee, K.M., Robertson, D.S., **Rufibach, K.**, Wason, J.M.S.</t>
+  </si>
+  <si>
+    <t>Manitz, J., Kan-Dobrosky, N., Buchner, H., Casadebaig, M.L., Haddad, V., Jie, F., Martin, E., Tang, R., Yung, G., Zhou, J., Stalbovskaya, V., Shentu, Y., **Rufibach, K.**, Mo, M., Dey, J., Degtyarev, E.</t>
+  </si>
+  <si>
+    <t>Stegherr, R., Schmoor, C., Beyersmann, J., **Rufibach, K.**, Jehl, V., Brueckner, A., Eisele, L., Kuenzel, T., Kupas, K., Langer, F., Loos, A., Norenberg, C., Voss, F., Friede, T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kunzmann, K, Grayling, M.J., Lee, K.M., Robertson, D.S., **Rufibach, K.**, Wason, J.M.S.</t>
+  </si>
+  <si>
+    <t>Bornkamp, B., **Rufibach, K.**, Lin, J., Liu, Y., Mehrotra, D., Roychoudhury, S., Schmidli, H., Shentu, Y., Wolbers, M.</t>
+  </si>
+  <si>
+    <t>Sun, S., Weber, J., Butler, E., **Rufibach, K.**, Roychoudhury, S.</t>
+  </si>
+  <si>
+    <t>Stegherr, R., Beyersmann, J., Jehl, V., **Rufibach, K.**, Leverkus, F., Schmoor, C., Friede, T.</t>
+  </si>
+  <si>
+    <t>Lawrence, R., Degtyarev, E., Griffiths, P., Trask, P., Lau, H., D'Alessio, D., Griebsch, I., Wallenstein, G., Cocks, K., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Heinzmann, D., Monnet, A.</t>
+  </si>
+  <si>
+    <t>Beyer, U., Dejardin, D., Meller, M., **Rufibach, K.**, Burger, H.U.</t>
+  </si>
+  <si>
+    <t>Meller, M., Beyersmann, J., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Burger, H.U., Abt, M.</t>
+  </si>
+  <si>
+    <t>Asikanius, E., **Rufibach, K.**, Bahlo, J., Bieska, G., Burger, H.U.</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Chen M., Ngyuen, H.</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Jordan, P., Abt, M.</t>
+  </si>
+  <si>
+    <t>Balabdaoui, F., Jankowski, H., **Rufibach, K.**, Pavlides, M.</t>
+  </si>
+  <si>
+    <t>Held, L., **Rufibach, K.**, Balabdaoui, F.</t>
+  </si>
+  <si>
+    <t>Balabdaoui, F., **Rufibach, K.**, Santambrogio, F.</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Walther, G.</t>
+  </si>
+  <si>
+    <t>Balabdaoui, F., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>Dümbgen, L., **Rufibach, K.**, Schuhmacher, D.</t>
+  </si>
+  <si>
+    <t>Dümbgen, L., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>Müller, S., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Bertschy, M., Schüttel, M., Vock, M., Wasserfallen, T.</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>The first two authors contributed equally.</t>
+  </si>
+  <si>
+    <t>The first four authors contributed equally.</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Stegherr, R., Schmoor, C., Jehl, V., Allignol, A., Boeckenhoff, A., Dunger-Baldauf, C., Eisele, L., Künzel, T., Kupas, K., Leverkus, F., Trampisch, M., Zhao, Y., Friede, Beyersmann, J.</t>
+  </si>
+  <si>
+    <t>Degtyarev, E., **Rufibach, K.**, Shentu, Y., Yung, G., Casey, M., Englert, S., Liu, F., Liu, Y., Sailer, O., Siegel, J., Sun, S., Tang, R.</t>
+  </si>
+  <si>
+    <t>Eintrittsraten und Austrittswahrscheinlichkeiten EVK 2000</t>
+  </si>
+  <si>
+    <t>Computing Maximum Likelihood Estimators of a log-concave Density Function</t>
+  </si>
+  <si>
+    <t>A second Marshall inequality in convex estimation</t>
+  </si>
+  <si>
+    <t>A smooth ROC curve estimator based on log-concave density estimates</t>
+  </si>
+  <si>
+    <t>Selection models with monotone weight functions in meta analysis</t>
+  </si>
+  <si>
+    <t>logcondens: Computations Related to Univariate Log-Concave Density Estimation</t>
+  </si>
+  <si>
+    <t>A score regression approach to assess calibration of probabilistic predictions</t>
+  </si>
+  <si>
+    <t>Least Squares estimation of two ordered monotone regression curves</t>
+  </si>
+  <si>
+    <t>The block criterion for multiscale inference about a density  with applications to other multiscale problems</t>
+  </si>
+  <si>
+    <t>An Active Set Algorithm to Estimate Parameters in Generalized Linear Models with Ordered Predictors</t>
+  </si>
+  <si>
+    <t>reporttools: R Functions to Generate LaTeX Tables of Descriptive Statistics</t>
+  </si>
+  <si>
+    <t>Smooth tail index estimation</t>
+  </si>
+  <si>
+    <t>Limit distribution theory for maximum likelihood estimation of a log-concave density</t>
+  </si>
+  <si>
+    <t>Maximum likelihood estimation of a log-concave density and its distribution function: basic properties and uniform consistency</t>
+  </si>
+  <si>
+    <t>On the max-domain of attraction of distributions with log-concave densities</t>
+  </si>
+  <si>
+    <t>Stat. Med.</t>
+  </si>
+  <si>
+    <t>877-890</t>
+  </si>
+  <si>
+    <t>Pharm. Stat.</t>
+  </si>
+  <si>
+    <t>150-162</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9288</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2010.06567</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pst.2158</t>
+  </si>
+  <si>
+    <t>Am. Stat.</t>
+  </si>
+  <si>
+    <t>424-432</t>
+  </si>
+  <si>
+    <t>737-751</t>
+  </si>
+  <si>
+    <t>793-805</t>
+  </si>
+  <si>
+    <t>Biom. J.</t>
+  </si>
+  <si>
+    <t>650-670</t>
+  </si>
+  <si>
+    <t>J Patient Rep Outcomes</t>
+  </si>
+  <si>
+    <t>427-437</t>
+  </si>
+  <si>
+    <t>44-58</t>
+  </si>
+  <si>
+    <t>550-567</t>
+  </si>
+  <si>
+    <t>4270-4289</t>
+  </si>
+  <si>
+    <t>144-164</t>
+  </si>
+  <si>
+    <t>438-446</t>
+  </si>
+  <si>
+    <t>1295-1310</t>
+  </si>
+  <si>
+    <t>Contemp. Clin. Trials</t>
+  </si>
+  <si>
+    <t>78-84</t>
+  </si>
+  <si>
+    <t>J. Biopharm. Stat.</t>
+  </si>
+  <si>
+    <t>191-201</t>
+  </si>
+  <si>
+    <t>Electron. J. Stat.</t>
+  </si>
+  <si>
+    <t>1405-1437</t>
+  </si>
+  <si>
+    <t>J. R. Stat. Soc. Ser. B Stat. Methodol.</t>
+  </si>
+  <si>
+    <t>769-790</t>
+  </si>
+  <si>
+    <t>Int. J. Biostat.</t>
+  </si>
+  <si>
+    <t>689-704</t>
+  </si>
+  <si>
+    <t>Journal of Statistical Software</t>
+  </si>
+  <si>
+    <t>Biometrics</t>
+  </si>
+  <si>
+    <t>1295-1305</t>
+  </si>
+  <si>
+    <t>J. Nonparametr. Stat.</t>
+  </si>
+  <si>
+    <t>1019-1037</t>
+  </si>
+  <si>
+    <t>J. Comput. Graph. Statist.</t>
+  </si>
+  <si>
+    <t>175-190</t>
+  </si>
+  <si>
+    <t>Comput. Statist. Data Anal.</t>
+  </si>
+  <si>
+    <t>1442-1456</t>
+  </si>
+  <si>
+    <t>J. Statist. Comput. Simulation</t>
+  </si>
+  <si>
+    <t>1155-1167</t>
+  </si>
+  <si>
+    <t>Ann. Statist.</t>
+  </si>
+  <si>
+    <t>1299-1331</t>
+  </si>
+  <si>
+    <t>Bernoulli</t>
+  </si>
+  <si>
+    <t>40-68</t>
+  </si>
+  <si>
+    <t>Statist. Probab. Lett.</t>
+  </si>
+  <si>
+    <t>1440-1444</t>
+  </si>
+  <si>
+    <t>118-126</t>
+  </si>
+  <si>
+    <t>J. Stat. Comput. Simul.</t>
+  </si>
+  <si>
+    <t>561-574</t>
+  </si>
+  <si>
+    <t>Mitteilungen der Schweizerischen Aktuarvereinigung</t>
+  </si>
+  <si>
+    <t>49-70</t>
+  </si>
+  <si>
+    <t>Journal of Statistical Software, Code Snippets</t>
+  </si>
+  <si>
+    <t>Balabdaoui, F., **Rufibach, K.**, Wellner, J.A.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2022.2144944</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2008.07881</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/savvy/code.html</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/the-analysis-of-adverse-events-done-right-savvy/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2022.2103181</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2008.07883</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13063-021-05354-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00031305.2021.1901782</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2006.15715</t>
+  </si>
+  <si>
+    <t>https://github.com/kkmann/sample-size-calculation-under-uncertainty</t>
+  </si>
+  <si>
+    <t>https://mybinder.org/v2/gh/kkmann/sample-size-calculation-under-uncertainty/0.2.1?urlpath=shiny/apps/sample-size-calculation-under-uncertainty/</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2008.05406</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pst.2104</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/princ_strat_drug_dev/princ_strat_example.html</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2010.00957</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pst.2108</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1912.00263</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/bimj.201900347</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186%2Fs41687-020-00218-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2020.1785543</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2006.04480</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pst.1969</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1901.01308</t>
+  </si>
+  <si>
+    <t>https://github.com/numbersman77/integratePhase2</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/bimj.201800250</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1808.07221</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/sim.8295</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1810.10722</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/pst.1917</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1711.07518</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/pst.1764</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=bpp</t>
+  </si>
+  <si>
+    <t>https://github.com/numbersman77/bpp.git</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/bimj.201500077</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.cct.2015.12.014</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1080/10543406.2014.972508</t>
+  </si>
+  <si>
+    <t>http://projecteuclid.org/euclid.ejs/1408540292</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1311.6403</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=logconcens</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1111/rssb.12011</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/1107.3904</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=logcondiscr</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1515/1557-4679.1378</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/1103.1787</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=logcondens</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/bimj.201000240</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/1102.4434</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=selectMeta</t>
+  </si>
+  <si>
+    <t>http://www.jstatsoft.org/v39/i06</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1111/j.1541-0420.2010.01406.x</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1080/10485250903548729</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/0904.2052</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=OrdMonReg</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1198/jcgs.2009.07071</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=modehunt</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.csda.2010.01.014</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/0902.0240</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=OrdFacReg</t>
+  </si>
+  <si>
+    <t>http://www.jstatsoft.org/v31/c01</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=reporttools</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1080/00949650802142667</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/math/0612140</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=smoothtail</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1214/08-AOS609</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/0708.3400</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.3150/08-BEJ141</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/0709.0334</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.spl.2007.12.008</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.spl.2007.05.009</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1080/10629360600569097</t>
+  </si>
+  <si>
+    <t>Invited discussions in statistical journals</t>
+  </si>
+  <si>
+    <t>577-578</t>
+  </si>
+  <si>
+    <t>Letters to the editor in Statistical Journals</t>
+  </si>
+  <si>
+    <t>23-26</t>
+  </si>
+  <si>
+    <t>511-512</t>
+  </si>
+  <si>
+    <t>Statistical papers in refereed proceedings</t>
+  </si>
+  <si>
+    <t>Proceedings of the 56th Session of the International Statistical Institute, Lisbon, Portugal, 22-29 August 2007</t>
+  </si>
+  <si>
+    <t>Asymptotics: Particles, Processes and Inverse problems (E. Cator, G. Jongbloed, C. Kraaikamp, R. Lopuhaae, J.A. Wellner, eds.), pp. 101-107. IMS Lecture Notes - Monograph Series 55, IMS, Hayward, USA.</t>
+  </si>
+  <si>
+    <t>Dümbgen, L., **Rufibach, K.**, Wellner, J.A.</t>
+  </si>
+  <si>
+    <t>files/publications/001_2001_Rufibach et al, Eintrittsraten EVK.pdf</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1582,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1150,22 +1596,28 @@
     <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
-    <col min="13" max="18" width="25.85546875" style="2" customWidth="1"/>
-    <col min="19" max="20" width="25.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1174,139 +1626,139 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2">
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2">
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2">
         <v>2023</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="H4" s="2">
         <v>22</v>
@@ -1315,62 +1767,77 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2">
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H6" s="2">
         <v>15</v>
@@ -1379,56 +1846,59 @@
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D8" s="2">
         <v>2022</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="H8" s="2">
         <v>112</v>
@@ -1437,690 +1907,1448 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>194</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B10" s="2">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2022</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="2">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>196</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2021</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="2">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>420</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>197</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2021</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="2">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B13" s="2">
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>199</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2021</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H15" s="2">
+        <v>63</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="2">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="2">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="2">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="2">
+        <v>15</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="2">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="2">
+        <v>47</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="2">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="2">
+        <v>26</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="2">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f>"1-29"</f>
+        <v>1-29</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="2">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="2">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>"1-28"</f>
+        <v>1-28</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="2">
+        <v>66</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="2">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="2">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="2">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="2">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="2">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="2">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="2">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="2">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="D33" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H33" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="2">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="2">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" s="2">
+        <v>54</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="2">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="2">
+        <v>79</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="2">
+        <v>37</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" s="2">
         <v>15</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="2">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="2">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="J38" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" s="2">
         <v>12</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="2">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="2">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="2">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="J39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" s="2">
         <v>7</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" s="2">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="2">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="J41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="D43" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" s="2">
+        <v>5</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B44" s="2">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="C44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="2">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="2">
+        <v>13</v>
+      </c>
+      <c r="I45" s="2">
+        <v>4</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="C46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="C47" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2">
         <v>60</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2">
-        <v>59</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2128,50 +3356,50 @@
         <v>3</v>
       </c>
       <c r="B49" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
         <v>57</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2">
-        <v>56</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2179,16 +3407,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2196,16 +3424,16 @@
         <v>3</v>
       </c>
       <c r="B53" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2213,16 +3441,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2230,16 +3458,16 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2247,50 +3475,50 @@
         <v>3</v>
       </c>
       <c r="B56" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="F57" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
         <v>50</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
-        <v>49</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2298,50 +3526,50 @@
         <v>3</v>
       </c>
       <c r="B59" s="2">
+        <v>49</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
         <v>48</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="F60" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
         <v>47</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>46</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2349,16 +3577,16 @@
         <v>3</v>
       </c>
       <c r="B62" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2366,16 +3594,16 @@
         <v>3</v>
       </c>
       <c r="B63" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2383,16 +3611,16 @@
         <v>3</v>
       </c>
       <c r="B64" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2400,16 +3628,16 @@
         <v>3</v>
       </c>
       <c r="B65" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2417,16 +3645,16 @@
         <v>3</v>
       </c>
       <c r="B66" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2434,16 +3662,16 @@
         <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2451,16 +3679,16 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2468,33 +3696,33 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
+        <v>39</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2">
         <v>38</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="2">
-        <v>37</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,67 +3730,67 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
+        <v>37</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2">
         <v>36</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="F72" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2">
         <v>35</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="F73" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
         <v>34</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
-        <v>33</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2570,50 +3798,50 @@
         <v>3</v>
       </c>
       <c r="B75" s="2">
+        <v>33</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
         <v>32</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="F76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>31</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2621,16 +3849,16 @@
         <v>3</v>
       </c>
       <c r="B78" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2638,16 +3866,16 @@
         <v>3</v>
       </c>
       <c r="B79" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2655,16 +3883,16 @@
         <v>3</v>
       </c>
       <c r="B80" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2675,47 +3903,47 @@
         <v>27</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
         <v>26</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2">
-        <v>25</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2723,16 +3951,16 @@
         <v>3</v>
       </c>
       <c r="B84" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2740,16 +3968,16 @@
         <v>3</v>
       </c>
       <c r="B85" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2757,16 +3985,16 @@
         <v>3</v>
       </c>
       <c r="B86" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2774,16 +4002,16 @@
         <v>3</v>
       </c>
       <c r="B87" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2791,16 +4019,16 @@
         <v>3</v>
       </c>
       <c r="B88" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2808,16 +4036,16 @@
         <v>3</v>
       </c>
       <c r="B89" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2825,101 +4053,101 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2">
         <v>18</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="F91" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2">
         <v>17</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="F92" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2">
         <v>16</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="F93" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2">
         <v>15</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="F94" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
         <v>14</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
-        <v>13</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2927,16 +4155,16 @@
         <v>3</v>
       </c>
       <c r="B96" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2944,16 +4172,16 @@
         <v>3</v>
       </c>
       <c r="B97" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2961,16 +4189,16 @@
         <v>3</v>
       </c>
       <c r="B98" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -2978,67 +4206,67 @@
         <v>3</v>
       </c>
       <c r="B99" s="2">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
         <v>9</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="F100" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
         <v>8</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="F101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2">
         <v>7</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2">
-        <v>6</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -3046,50 +4274,50 @@
         <v>3</v>
       </c>
       <c r="B103" s="2">
+        <v>6</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2">
         <v>5</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="F104" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2">
-        <v>3</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -3097,84 +4325,84 @@
         <v>3</v>
       </c>
       <c r="B106" s="2">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
         <v>2</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3182,22 +4410,45 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="2">
         <v>1</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>183</v>
+      <c r="F112" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="L12" r:id="rId1"/>
+    <hyperlink ref="L32" r:id="rId2"/>
+    <hyperlink ref="K35" r:id="rId3"/>
+    <hyperlink ref="L36" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="376">
   <si>
     <t>Nr</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>files/publications/001_2001_Rufibach et al, Eintrittsraten EVK.pdf</t>
+  </si>
+  <si>
+    <t>Submitted statistical articles</t>
   </si>
 </sst>
 </file>
@@ -1585,9 +1588,9 @@
   <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="2" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="B2" s="2">
         <v>41</v>
@@ -1714,7 +1717,7 @@
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="377">
   <si>
     <t>Nr</t>
   </si>
@@ -1150,6 +1150,9 @@
   </si>
   <si>
     <t>Submitted statistical articles</t>
+  </si>
+  <si>
+    <t>554-559</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1593,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1820,7 +1823,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -1828,13 +1831,13 @@
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>152</v>
@@ -1846,16 +1849,16 @@
         <v>15</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>162</v>
+        <v>376</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
@@ -1863,22 +1866,31 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="K7" s="2" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="379">
   <si>
     <t>Nr</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>ta</t>
-  </si>
-  <si>
     <t>Journal</t>
   </si>
   <si>
@@ -1153,6 +1150,15 @@
   </si>
   <si>
     <t>554-559</t>
+  </si>
+  <si>
+    <t>767-780</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Wolbers, M., Devenport, J., Yung, G., Harbron, C., Bedding, A., Huang, Z., Lin, R., Pang, H., Saban\'{e}s Bov\'{e}, D., Wang, J.</t>
+  </si>
+  <si>
+    <t>Implementation of statistical innovation in a pharmaceutical company</t>
   </si>
 </sst>
 </file>
@@ -1588,12 +1594,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1641,1511 +1647,1509 @@
         <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="2">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="2">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="2">
-        <v>38</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="H5" s="2">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2">
         <v>15</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>376</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
       </c>
       <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="2">
-        <v>112</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="2">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D9" s="2">
         <v>2022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="H9" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2">
         <v>2022</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H10" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="2">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="2">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2021</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="2">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>420</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="2">
-        <v>31</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="2">
         <v>2021</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H12" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>248</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>420</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="2">
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H13" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="2">
         <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="2">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="2">
+        <v>63</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="2">
-        <v>63</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="L16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="2">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="2">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2">
-        <v>68</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2">
         <v>2020</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="H17" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>254</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2">
         <v>2020</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="2">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="2">
         <v>19</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="2">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H19" s="2">
-        <v>62</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2">
         <v>2019</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H20" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2">
         <v>2019</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H21" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D22" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2">
         <v>2016</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H23" s="2">
-        <v>58</v>
-      </c>
-      <c r="I23" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2">
         <v>2016</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H24" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2">
         <v>2016</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H25" s="2">
-        <v>26</v>
-      </c>
-      <c r="I25" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D26" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H26" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D27" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H27" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="2">
         <v>15</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="2">
         <v>2012</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="E29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H29" s="2">
         <v>8</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="J29" s="2" t="str">
         <f>"1-29"</f>
         <v>1-29</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K29" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="2">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H29" s="2">
-        <v>53</v>
-      </c>
-      <c r="I29" s="2">
-        <v>4</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B30" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2">
         <v>2011</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H30" s="2">
+        <v>53</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="2">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" s="2">
         <v>39</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I31" s="2">
         <v>6</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="J31" s="2" t="str">
         <f>"1-28"</f>
         <v>1-28</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="2">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" s="2">
-        <v>66</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2">
         <v>2010</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H32" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I32" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D33" s="2">
         <v>2010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H33" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D34" s="2">
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H34" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="H35" s="2">
-        <v>31</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D36" s="2">
         <v>2009</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H36" s="2">
-        <v>79</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>281</v>
+        <v>31</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="D37" s="2">
         <v>2009</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H37" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="D38" s="2">
         <v>2009</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H38" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D39" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H39" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D40" s="2">
         <v>2008</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H40" s="2">
         <v>78</v>
       </c>
       <c r="I40" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D41" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>225</v>
@@ -3154,36 +3158,33 @@
         <v>152</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H41" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D42" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>224</v>
@@ -3192,178 +3193,199 @@
         <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H42" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I42" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D44" s="2">
         <v>2010</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="F44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="2">
         <v>72</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I44" s="2">
         <v>5</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B44" s="2">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H44" s="2">
-        <v>15</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" s="2">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B45" s="2">
+    </row>
+    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>2021</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="F46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="2">
         <v>13</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I46" s="2">
         <v>4</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J46" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="D47" s="2">
         <v>2007</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2">
-        <v>60</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>136</v>
+      <c r="D48" s="2">
+        <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3371,13 +3393,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>152</v>
@@ -3388,47 +3410,47 @@
         <v>3</v>
       </c>
       <c r="B50" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="F51" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
         <v>57</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2">
-        <v>56</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>152</v>
@@ -3439,13 +3461,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>152</v>
@@ -3456,13 +3478,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>152</v>
@@ -3473,13 +3495,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>152</v>
@@ -3490,13 +3512,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>152</v>
@@ -3507,47 +3529,47 @@
         <v>3</v>
       </c>
       <c r="B57" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="F58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
         <v>50</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
-        <v>49</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>152</v>
@@ -3558,47 +3580,47 @@
         <v>3</v>
       </c>
       <c r="B60" s="2">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
         <v>48</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="F61" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
         <v>47</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
-        <v>46</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>152</v>
@@ -3609,13 +3631,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>152</v>
@@ -3626,13 +3648,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>152</v>
@@ -3643,13 +3665,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>152</v>
@@ -3660,13 +3682,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>152</v>
@@ -3677,13 +3699,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>152</v>
@@ -3694,13 +3716,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>152</v>
@@ -3711,13 +3733,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>152</v>
@@ -3728,30 +3750,30 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
+        <v>39</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2">
         <v>38</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="2">
-        <v>37</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>152</v>
@@ -3762,64 +3784,64 @@
         <v>3</v>
       </c>
       <c r="B72" s="2">
+        <v>37</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2">
         <v>36</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="F73" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
         <v>35</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="F74" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
         <v>34</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2">
-        <v>33</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>152</v>
@@ -3830,47 +3852,47 @@
         <v>3</v>
       </c>
       <c r="B76" s="2">
+        <v>33</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>32</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="F77" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
         <v>31</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
-        <v>30</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>152</v>
@@ -3881,13 +3903,13 @@
         <v>3</v>
       </c>
       <c r="B79" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>152</v>
@@ -3898,13 +3920,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>152</v>
@@ -3915,13 +3937,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>152</v>
@@ -3935,44 +3957,44 @@
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="F83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2">
         <v>26</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2">
-        <v>25</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>152</v>
@@ -3983,13 +4005,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>152</v>
@@ -4000,13 +4022,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>152</v>
@@ -4017,13 +4039,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>152</v>
@@ -4034,13 +4056,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>152</v>
@@ -4051,13 +4073,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>152</v>
@@ -4068,13 +4090,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>152</v>
@@ -4085,98 +4107,98 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
+        <v>19</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2">
         <v>18</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="F92" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2">
         <v>17</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="F93" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2">
         <v>16</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="F94" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="F95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
         <v>14</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2">
-        <v>13</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>152</v>
@@ -4187,13 +4209,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>152</v>
@@ -4204,13 +4226,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>152</v>
@@ -4221,13 +4243,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>152</v>
@@ -4238,64 +4260,64 @@
         <v>3</v>
       </c>
       <c r="B100" s="2">
+        <v>10</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
         <v>9</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="F101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2">
         <v>8</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="F102" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2">
         <v>7</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="2">
-        <v>6</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>152</v>
@@ -4306,47 +4328,47 @@
         <v>3</v>
       </c>
       <c r="B104" s="2">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
         <v>5</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="F105" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2">
-        <v>3</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>152</v>
@@ -4357,47 +4379,47 @@
         <v>3</v>
       </c>
       <c r="B107" s="2">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
         <v>2</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>152</v>
@@ -4405,33 +4427,33 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>152</v>
@@ -4442,25 +4464,42 @@
         <v>97</v>
       </c>
       <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="2">
         <v>1</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L12" r:id="rId1"/>
-    <hyperlink ref="L32" r:id="rId2"/>
-    <hyperlink ref="K35" r:id="rId3"/>
-    <hyperlink ref="L36" r:id="rId4"/>
+    <hyperlink ref="L13" r:id="rId1"/>
+    <hyperlink ref="L33" r:id="rId2"/>
+    <hyperlink ref="K36" r:id="rId3"/>
+    <hyperlink ref="L37" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="380">
   <si>
     <t>Nr</t>
   </si>
@@ -516,9 +516,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>arxiv</t>
-  </si>
-  <si>
     <t>markdown</t>
   </si>
   <si>
@@ -1155,17 +1152,23 @@
     <t>767-780</t>
   </si>
   <si>
-    <t>**Rufibach, K.**, Wolbers, M., Devenport, J., Yung, G., Harbron, C., Bedding, A., Huang, Z., Lin, R., Pang, H., Saban\'{e}s Bov\'{e}, D., Wang, J.</t>
-  </si>
-  <si>
     <t>Implementation of statistical innovation in a pharmaceutical company</t>
+  </si>
+  <si>
+    <t>https://osf.io/fw4na</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Wolbers, M., Devenport, J., Yung, G., Harbron, C., Bedding, A., Huang, Z., Lin, R., Pang, H., Sabanés Bové, D., Wang, J.</t>
+  </si>
+  <si>
+    <t>preprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1173,6 +1176,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1194,10 +1204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1205,8 +1216,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1599,7 +1612,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1662,69 +1675,72 @@
         <v>163</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2">
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>149</v>
@@ -1733,33 +1749,33 @@
         <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>148</v>
@@ -1768,21 +1784,21 @@
         <v>151</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
@@ -1806,24 +1822,24 @@
         <v>162</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2">
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
@@ -1844,33 +1860,33 @@
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
@@ -1891,21 +1907,21 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="2">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
@@ -1929,18 +1945,18 @@
         <v>161</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2">
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2">
         <v>2022</v>
@@ -1952,7 +1968,7 @@
         <v>152</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="2">
         <v>112</v>
@@ -1961,21 +1977,21 @@
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2">
         <v>2022</v>
@@ -1987,7 +2003,7 @@
         <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H10" s="2">
         <v>41</v>
@@ -1996,24 +2012,24 @@
         <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2">
         <v>2022</v>
@@ -2025,27 +2041,27 @@
         <v>152</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H11" s="2">
         <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="2">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2">
         <v>2021</v>
@@ -2057,7 +2073,7 @@
         <v>152</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" s="2">
         <v>22</v>
@@ -2069,27 +2085,27 @@
         <v>420</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2">
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2">
         <v>2021</v>
@@ -2101,7 +2117,7 @@
         <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13" s="2">
         <v>75</v>
@@ -2110,30 +2126,30 @@
         <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
@@ -2145,33 +2161,33 @@
         <v>152</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="2">
         <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
@@ -2183,30 +2199,30 @@
         <v>152</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2">
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
@@ -2218,36 +2234,36 @@
         <v>152</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2">
         <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="2">
         <v>2020</v>
@@ -2259,7 +2275,7 @@
         <v>152</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
@@ -2268,18 +2284,18 @@
         <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2">
         <v>2020</v>
@@ -2300,27 +2316,27 @@
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="T18" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="2">
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2">
         <v>2020</v>
@@ -2332,33 +2348,33 @@
         <v>152</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H19" s="2">
         <v>19</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="2">
         <v>2019</v>
@@ -2370,7 +2386,7 @@
         <v>152</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H20" s="2">
         <v>62</v>
@@ -2379,24 +2395,24 @@
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="2">
         <v>2019</v>
@@ -2408,30 +2424,30 @@
         <v>152</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21" s="2">
         <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2">
         <v>2019</v>
@@ -2443,30 +2459,30 @@
         <v>152</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H22" s="2">
         <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2">
         <v>2016</v>
@@ -2478,33 +2494,33 @@
         <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23" s="2">
         <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2">
         <v>2016</v>
@@ -2516,7 +2532,7 @@
         <v>152</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H24" s="2">
         <v>58</v>
@@ -2525,21 +2541,21 @@
         <v>6</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="2">
         <v>2016</v>
@@ -2551,27 +2567,27 @@
         <v>152</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H25" s="2">
         <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2">
         <v>2016</v>
@@ -2583,7 +2599,7 @@
         <v>152</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H26" s="2">
         <v>26</v>
@@ -2592,24 +2608,24 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="2">
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2">
         <v>2014</v>
@@ -2621,33 +2637,33 @@
         <v>152</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H27" s="2">
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="2">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="2">
         <v>2013</v>
@@ -2659,7 +2675,7 @@
         <v>152</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="2">
         <v>75</v>
@@ -2668,39 +2684,39 @@
         <v>4</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2">
         <v>2012</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H29" s="2">
         <v>8</v>
@@ -2713,36 +2729,36 @@
         <v>1-29</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="2">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2">
         <v>2011</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H30" s="2">
         <v>53</v>
@@ -2751,39 +2767,39 @@
         <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2">
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2">
         <v>2011</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="2">
         <v>39</v>
@@ -2796,33 +2812,33 @@
         <v>1-28</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="2">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="2">
         <v>2010</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H32" s="2">
         <v>66</v>
@@ -2831,33 +2847,33 @@
         <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2">
         <v>2010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H33" s="2">
         <v>22</v>
@@ -2866,39 +2882,39 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2">
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H34" s="2">
         <v>19</v>
@@ -2907,74 +2923,74 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H35" s="2">
         <v>54</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="2">
         <v>2009</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H36" s="2">
         <v>31</v>
@@ -2983,147 +2999,147 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D37" s="2">
         <v>2009</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H37" s="2">
         <v>79</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="2">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="2">
         <v>2009</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H38" s="2">
         <v>37</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="2">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="2">
         <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H39" s="2">
         <v>15</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K39" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2">
         <v>2008</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H40" s="2">
         <v>78</v>
@@ -3132,33 +3148,33 @@
         <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2">
         <v>2008</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H41" s="2">
         <v>78</v>
@@ -3167,33 +3183,33 @@
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42" s="2">
         <v>2007</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H42" s="2">
         <v>77</v>
@@ -3202,36 +3218,36 @@
         <v>7</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="2">
         <v>2001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H43" s="2">
         <v>2001</v>
@@ -3240,15 +3256,15 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -3266,7 +3282,7 @@
         <v>152</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H44" s="2">
         <v>72</v>
@@ -3275,12 +3291,12 @@
         <v>5</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -3307,12 +3323,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3339,18 +3355,18 @@
         <v>4</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" s="2">
         <v>2007</v>
@@ -3362,18 +3378,18 @@
         <v>151</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="2">
         <v>2007</v>
@@ -3385,7 +3401,7 @@
         <v>151</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4500,9 +4516,10 @@
     <hyperlink ref="L33" r:id="rId2"/>
     <hyperlink ref="K36" r:id="rId3"/>
     <hyperlink ref="L37" r:id="rId4"/>
+    <hyperlink ref="L2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="381">
   <si>
     <t>Nr</t>
   </si>
@@ -1162,6 +1162,9 @@
   </si>
   <si>
     <t>preprint</t>
+  </si>
+  <si>
+    <t>https://insightsengineering.github.io/simIDM/latest-tag/</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1615,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1754,6 +1757,9 @@
       <c r="L3" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>183</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="383">
   <si>
     <t>Nr</t>
   </si>
@@ -1165,6 +1165,12 @@
   </si>
   <si>
     <t>https://insightsengineering.github.io/simIDM/latest-tag/</t>
+  </si>
+  <si>
+    <t>Frontiers in Pharmacology</t>
+  </si>
+  <si>
+    <t>2024+</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1621,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
@@ -1781,16 +1787,16 @@
         <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>180</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -441,18 +441,12 @@
     <t>Survival analysis for AdVerse events with VarYing follow-up times (SAVVY): Estimation of adverse event risks</t>
   </si>
   <si>
-    <t>Dukes</t>
-  </si>
-  <si>
     <t>On Identification of the Principal Stratum Effect in Patients Who Would Comply If Treated</t>
   </si>
   <si>
     <t>Estimands for Overall Survival in Clinical Trials with Treatment Switching in Oncology</t>
   </si>
   <si>
-    <t>Hampson</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biostatistical considerations when using RWD and RWE in clinical studies for regulatory purposes: A landscape assessment </t>
   </si>
   <si>
@@ -1171,6 +1165,12 @@
   </si>
   <si>
     <t>2024+</t>
+  </si>
+  <si>
+    <t>Hampson, L.V. and Degtyarev, E. and Tang, R., and Lin, J. and **Rufibach, K.** and Zheng, C.</t>
+  </si>
+  <si>
+    <t>Dukes, O. and Van Lancker, K. and Bornkamp, B. and Heinzmann, D. and **Rufibach, K.** and Wolbers, M.</t>
   </si>
 </sst>
 </file>
@@ -1619,9 +1619,9 @@
   <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1651,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1660,169 +1660,169 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2" s="2">
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="2">
         <v>22</v>
@@ -1831,27 +1831,27 @@
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2">
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
@@ -1860,10 +1860,10 @@
         <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" s="2">
         <v>15</v>
@@ -1872,45 +1872,45 @@
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
@@ -1919,33 +1919,33 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8" s="2">
         <v>15</v>
@@ -1954,33 +1954,33 @@
         <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2">
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2">
         <v>2022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H9" s="2">
         <v>112</v>
@@ -1989,21 +1989,21 @@
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2">
         <v>2022</v>
@@ -2012,10 +2012,10 @@
         <v>135</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H10" s="2">
         <v>41</v>
@@ -2024,56 +2024,56 @@
         <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2">
         <v>2022</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H11" s="2">
         <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="2">
         <v>2021</v>
@@ -2082,10 +2082,10 @@
         <v>138</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H12" s="2">
         <v>22</v>
@@ -2097,27 +2097,27 @@
         <v>420</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="2">
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="2">
         <v>2021</v>
@@ -2126,10 +2126,10 @@
         <v>132</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H13" s="2">
         <v>75</v>
@@ -2138,30 +2138,30 @@
         <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
@@ -2170,36 +2170,36 @@
         <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H14" s="2">
         <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
@@ -2208,33 +2208,33 @@
         <v>133</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2">
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
@@ -2243,39 +2243,39 @@
         <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H16" s="2">
         <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2">
         <v>2020</v>
@@ -2284,10 +2284,10 @@
         <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
@@ -2296,18 +2296,18 @@
         <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18" s="2">
         <v>2020</v>
@@ -2316,10 +2316,10 @@
         <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18" s="2">
         <v>12</v>
@@ -2328,27 +2328,27 @@
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2">
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19" s="2">
         <v>2020</v>
@@ -2357,36 +2357,36 @@
         <v>125</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H19" s="2">
         <v>19</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" s="2">
         <v>2019</v>
@@ -2395,10 +2395,10 @@
         <v>123</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H20" s="2">
         <v>62</v>
@@ -2407,24 +2407,24 @@
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" s="2">
         <v>2019</v>
@@ -2433,33 +2433,33 @@
         <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H21" s="2">
         <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D22" s="2">
         <v>2019</v>
@@ -2468,33 +2468,33 @@
         <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H22" s="2">
         <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2">
         <v>2016</v>
@@ -2503,36 +2503,36 @@
         <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H23" s="2">
         <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="O23" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2">
         <v>2016</v>
@@ -2541,10 +2541,10 @@
         <v>107</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H24" s="2">
         <v>58</v>
@@ -2553,21 +2553,21 @@
         <v>6</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2">
         <v>2016</v>
@@ -2576,30 +2576,30 @@
         <v>108</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H25" s="2">
         <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D26" s="2">
         <v>2016</v>
@@ -2608,10 +2608,10 @@
         <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H26" s="2">
         <v>26</v>
@@ -2620,24 +2620,24 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2">
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2">
         <v>2014</v>
@@ -2646,36 +2646,36 @@
         <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H27" s="2">
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="2">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2">
         <v>2013</v>
@@ -2684,10 +2684,10 @@
         <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H28" s="2">
         <v>75</v>
@@ -2696,39 +2696,39 @@
         <v>4</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2">
         <v>2012</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H29" s="2">
         <v>8</v>
@@ -2741,36 +2741,36 @@
         <v>1-29</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2">
         <v>2011</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H30" s="2">
         <v>53</v>
@@ -2779,39 +2779,39 @@
         <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2">
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D31" s="2">
         <v>2011</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H31" s="2">
         <v>39</v>
@@ -2824,33 +2824,33 @@
         <v>1-28</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2">
         <v>2010</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H32" s="2">
         <v>66</v>
@@ -2859,33 +2859,33 @@
         <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D33" s="2">
         <v>2010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H33" s="2">
         <v>22</v>
@@ -2894,39 +2894,39 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D34" s="2">
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H34" s="2">
         <v>19</v>
@@ -2935,74 +2935,74 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H35" s="2">
         <v>54</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B36" s="2">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2">
         <v>2009</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H36" s="2">
         <v>31</v>
@@ -3011,147 +3011,147 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D37" s="2">
         <v>2009</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H37" s="2">
         <v>79</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B38" s="2">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D38" s="2">
         <v>2009</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H38" s="2">
         <v>37</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2">
         <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H39" s="2">
         <v>15</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D40" s="2">
         <v>2008</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H40" s="2">
         <v>78</v>
@@ -3160,33 +3160,33 @@
         <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D41" s="2">
         <v>2008</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H41" s="2">
         <v>78</v>
@@ -3195,33 +3195,33 @@
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D42" s="2">
         <v>2007</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H42" s="2">
         <v>77</v>
@@ -3230,36 +3230,36 @@
         <v>7</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D43" s="2">
         <v>2001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H43" s="2">
         <v>2001</v>
@@ -3268,15 +3268,15 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -3291,10 +3291,10 @@
         <v>116</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H44" s="2">
         <v>72</v>
@@ -3303,30 +3303,30 @@
         <v>5</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>381</v>
       </c>
       <c r="D45" s="2">
         <v>2023</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H45" s="2">
         <v>15</v>
@@ -3335,30 +3335,30 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="D46" s="2">
         <v>2021</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H46" s="2">
         <v>13</v>
@@ -3367,18 +3367,18 @@
         <v>4</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D47" s="2">
         <v>2007</v>
@@ -3387,21 +3387,21 @@
         <v>112</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2">
         <v>2007</v>
@@ -3410,10 +3410,10 @@
         <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>137</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3447,7 +3447,7 @@
         <v>126</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3464,7 +3464,7 @@
         <v>121</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3481,7 +3481,7 @@
         <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3498,7 +3498,7 @@
         <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3566,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3617,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3634,7 +3634,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3651,7 +3651,7 @@
         <v>17</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
         <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3685,7 +3685,7 @@
         <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3702,7 +3702,7 @@
         <v>21</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>28</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3787,7 +3787,7 @@
         <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3821,7 +3821,7 @@
         <v>33</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>35</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>37</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3889,7 +3889,7 @@
         <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3906,7 +3906,7 @@
         <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3923,7 +3923,7 @@
         <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3957,7 +3957,7 @@
         <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3974,7 +3974,7 @@
         <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
         <v>129</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4025,7 +4025,7 @@
         <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4042,7 +4042,7 @@
         <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4144,7 +4144,7 @@
         <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4161,7 +4161,7 @@
         <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,7 +4178,7 @@
         <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4212,7 +4212,7 @@
         <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4229,7 +4229,7 @@
         <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4280,7 +4280,7 @@
         <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4297,7 +4297,7 @@
         <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4331,7 +4331,7 @@
         <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4348,7 +4348,7 @@
         <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4365,7 +4365,7 @@
         <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4382,7 +4382,7 @@
         <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4416,7 +4416,7 @@
         <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
         <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4450,7 +4450,7 @@
         <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4467,7 +4467,7 @@
         <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4484,7 +4484,7 @@
         <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4501,7 +4501,7 @@
         <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="384">
   <si>
     <t>Nr</t>
   </si>
@@ -1161,9 +1161,6 @@
     <t>https://insightsengineering.github.io/simIDM/latest-tag/</t>
   </si>
   <si>
-    <t>Frontiers in Pharmacology</t>
-  </si>
-  <si>
     <t>2024+</t>
   </si>
   <si>
@@ -1171,6 +1168,12 @@
   </si>
   <si>
     <t>Dukes, O. and Van Lancker, K. and Bornkamp, B. and Heinzmann, D. and **Rufibach, K.** and Wolbers, M.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphar.2024.1223858</t>
+  </si>
+  <si>
+    <t>Front. Pharmacol.</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1226,6 +1229,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1618,10 +1624,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1793,7 @@
         <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>146</v>
@@ -1796,13 +1802,22 @@
         <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>176</v>
       </c>
@@ -1833,7 +1848,7 @@
       <c r="J5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>175</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -3314,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D45" s="2">
         <v>2023</v>
@@ -3346,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" s="2">
         <v>2021</v>
@@ -4529,9 +4544,10 @@
     <hyperlink ref="K36" r:id="rId3"/>
     <hyperlink ref="L37" r:id="rId4"/>
     <hyperlink ref="L2" r:id="rId5"/>
+    <hyperlink ref="K5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1149,9 +1149,6 @@
     <t>Implementation of statistical innovation in a pharmaceutical company</t>
   </si>
   <si>
-    <t>https://osf.io/fw4na</t>
-  </si>
-  <si>
     <t>**Rufibach, K.**, Wolbers, M., Devenport, J., Yung, G., Harbron, C., Bedding, A., Huang, Z., Lin, R., Pang, H., Sabanés Bové, D., Wang, J.</t>
   </si>
   <si>
@@ -1174,6 +1171,9 @@
   </si>
   <si>
     <t>Front. Pharmacol.</t>
+  </si>
+  <si>
+    <t>https://osf.io/huq26/</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>161</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>162</v>
@@ -1725,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -1740,7 +1740,7 @@
         <v>173</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="T2" s="2"/>
     </row>
@@ -1770,7 +1770,7 @@
         <v>174</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>181</v>
@@ -1793,7 +1793,7 @@
         <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>146</v>
@@ -1802,7 +1802,7 @@
         <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H4" s="2">
         <v>15</v>
@@ -1811,7 +1811,7 @@
         <v>1223858</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>178</v>
@@ -3329,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" s="2">
         <v>2023</v>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" s="2">
         <v>2021</v>
@@ -4543,11 +4543,10 @@
     <hyperlink ref="L33" r:id="rId2"/>
     <hyperlink ref="K36" r:id="rId3"/>
     <hyperlink ref="L37" r:id="rId4"/>
-    <hyperlink ref="L2" r:id="rId5"/>
-    <hyperlink ref="K5" r:id="rId6"/>
+    <hyperlink ref="K5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="386">
   <si>
     <t>Nr</t>
   </si>
@@ -1174,6 +1174,12 @@
   </si>
   <si>
     <t>https://osf.io/huq26/</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with VarYing follow-up times (SAVVY): summary of findings and a roadmap for the future of safety analyses in clinical trials</t>
+  </si>
+  <si>
+    <t>**Rufibach, K.**, Beyersmann, J., Friede, T., Schmoor, C., Stegherr, R.</t>
   </si>
 </sst>
 </file>
@@ -1622,12 +1628,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1717,30 +1723,27 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>385</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="T2" s="2"/>
     </row>
@@ -1749,7 +1752,7 @@
         <v>371</v>
       </c>
       <c r="B3" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>169</v>
@@ -1784,142 +1787,122 @@
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="B4" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>378</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1223858</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2023</v>
+        <v>177</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>382</v>
       </c>
       <c r="H5" s="2">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>291</v>
+        <v>160</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B7" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>150</v>
@@ -1931,30 +1914,42 @@
         <v>15</v>
       </c>
       <c r="I7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>150</v>
@@ -1966,118 +1961,121 @@
         <v>15</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>159</v>
+        <v>372</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="H9" s="2">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B10" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2">
         <v>2022</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="H10" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="2">
         <v>2022</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H11" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
@@ -2085,142 +2083,136 @@
         <v>176</v>
       </c>
       <c r="B12" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H12" s="2">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B13" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="2">
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H13" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>244</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>420</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H14" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B15" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
@@ -2232,86 +2224,92 @@
         <v>20</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B16" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H16" s="2">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B17" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H17" s="2">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2319,116 +2317,110 @@
         <v>176</v>
       </c>
       <c r="B18" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D18" s="2">
         <v>2020</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="H18" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2">
-        <v>4</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D19" s="2">
         <v>2020</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="H19" s="2">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H20" s="2">
-        <v>62</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2436,34 +2428,37 @@
         <v>176</v>
       </c>
       <c r="B21" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="2">
         <v>2019</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H21" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2471,34 +2466,34 @@
         <v>176</v>
       </c>
       <c r="B22" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2">
         <v>2019</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H22" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2506,16 +2501,16 @@
         <v>176</v>
       </c>
       <c r="B23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
@@ -2524,19 +2519,16 @@
         <v>237</v>
       </c>
       <c r="H23" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2544,34 +2536,37 @@
         <v>176</v>
       </c>
       <c r="B24" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2">
         <v>2016</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H24" s="2">
-        <v>58</v>
-      </c>
-      <c r="I24" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2579,31 +2574,34 @@
         <v>176</v>
       </c>
       <c r="B25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2">
         <v>2016</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H25" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2611,37 +2609,31 @@
         <v>176</v>
       </c>
       <c r="B26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2">
         <v>2016</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H26" s="2">
-        <v>26</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2649,37 +2641,37 @@
         <v>176</v>
       </c>
       <c r="B27" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H27" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2687,40 +2679,37 @@
         <v>176</v>
       </c>
       <c r="B28" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H28" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2728,41 +2717,40 @@
         <v>176</v>
       </c>
       <c r="B29" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D29" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H29" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f>"1-29"</f>
-        <v>1-29</v>
+        <v>4</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2770,40 +2758,41 @@
         <v>176</v>
       </c>
       <c r="B30" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D30" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="H30" s="2">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>"1-29"</f>
+        <v>1-29</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2811,38 +2800,40 @@
         <v>176</v>
       </c>
       <c r="B31" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D31" s="2">
         <v>2011</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H31" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I31" s="2">
-        <v>6</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f>"1-28"</f>
-        <v>1-28</v>
+        <v>4</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2850,34 +2841,38 @@
         <v>176</v>
       </c>
       <c r="B32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D32" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H32" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I32" s="2">
-        <v>4</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>269</v>
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f>"1-28"</f>
+        <v>1-28</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2885,40 +2880,34 @@
         <v>176</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="2">
         <v>2010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H33" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2926,37 +2915,40 @@
         <v>176</v>
       </c>
       <c r="B34" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D34" s="2">
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H34" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2964,37 +2956,37 @@
         <v>176</v>
       </c>
       <c r="B35" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D35" s="2">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H35" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3002,34 +2994,37 @@
         <v>176</v>
       </c>
       <c r="B36" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D36" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H36" s="2">
-        <v>31</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3037,37 +3032,34 @@
         <v>176</v>
       </c>
       <c r="B37" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2">
         <v>2009</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H37" s="2">
-        <v>79</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>277</v>
+        <v>31</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3075,37 +3067,37 @@
         <v>176</v>
       </c>
       <c r="B38" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="D38" s="2">
         <v>2009</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H38" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3113,34 +3105,34 @@
         <v>176</v>
       </c>
       <c r="B39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D39" s="2">
         <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>335</v>
@@ -3151,34 +3143,37 @@
         <v>176</v>
       </c>
       <c r="B40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D40" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H40" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3186,16 +3181,16 @@
         <v>176</v>
       </c>
       <c r="B41" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D41" s="2">
         <v>2008</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
@@ -3207,13 +3202,13 @@
         <v>78</v>
       </c>
       <c r="I41" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3221,136 +3216,139 @@
         <v>176</v>
       </c>
       <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H42" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H42" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" s="2">
-        <v>7</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D43" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H43" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>2010</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="2">
         <v>72</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I45" s="2">
         <v>5</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="2">
-        <v>15</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3358,16 +3356,16 @@
         <v>363</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D46" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>150</v>
@@ -3376,328 +3374,343 @@
         <v>158</v>
       </c>
       <c r="H46" s="2">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="2">
         <v>13</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I47" s="2">
         <v>4</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>369</v>
+        <v>209</v>
       </c>
       <c r="D48" s="2">
         <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="50" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2">
         <v>60</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="F50" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
         <v>59</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2">
-        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
+        <v>58</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="F52" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
         <v>57</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="F53" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2">
         <v>56</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="F54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
         <v>55</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
-        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="F56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="F57" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
         <v>52</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
-        <v>51</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="F59" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
         <v>50</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="F60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
         <v>49</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="F61" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
         <v>48</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
         <v>47</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
         <v>46</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>150</v>
@@ -3708,13 +3721,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>150</v>
@@ -3725,13 +3738,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>150</v>
@@ -3742,13 +3755,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>150</v>
@@ -3759,13 +3772,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>150</v>
@@ -3776,13 +3789,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>150</v>
@@ -3793,13 +3806,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>150</v>
@@ -3810,30 +3823,30 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
+        <v>39</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2">
         <v>38</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2">
-        <v>37</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>150</v>
@@ -3844,64 +3857,64 @@
         <v>3</v>
       </c>
       <c r="B73" s="2">
+        <v>37</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
         <v>36</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="F74" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
         <v>35</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="F75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
         <v>34</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
-        <v>33</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>150</v>
@@ -3912,47 +3925,47 @@
         <v>3</v>
       </c>
       <c r="B77" s="2">
+        <v>33</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
         <v>32</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="F78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
         <v>31</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
-        <v>30</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>150</v>
@@ -3963,13 +3976,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>150</v>
@@ -3980,13 +3993,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>150</v>
@@ -3997,13 +4010,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>150</v>
@@ -4017,44 +4030,44 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="F84" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2">
         <v>26</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2">
-        <v>25</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>150</v>
@@ -4065,13 +4078,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>150</v>
@@ -4082,13 +4095,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>150</v>
@@ -4099,13 +4112,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>150</v>
@@ -4116,13 +4129,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>150</v>
@@ -4133,13 +4146,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>150</v>
@@ -4150,13 +4163,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>150</v>
@@ -4167,98 +4180,98 @@
         <v>3</v>
       </c>
       <c r="B92" s="2">
+        <v>19</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2">
         <v>18</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="F93" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2">
         <v>17</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="F94" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
         <v>16</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="F95" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
         <v>15</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="F96" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
         <v>14</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
-        <v>13</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>150</v>
@@ -4269,13 +4282,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>150</v>
@@ -4286,13 +4299,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>150</v>
@@ -4303,13 +4316,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>150</v>
@@ -4320,64 +4333,64 @@
         <v>3</v>
       </c>
       <c r="B101" s="2">
+        <v>10</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2">
         <v>9</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="F102" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2">
         <v>8</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="2">
+      <c r="F103" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2">
         <v>7</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2">
-        <v>6</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>150</v>
@@ -4388,47 +4401,47 @@
         <v>3</v>
       </c>
       <c r="B105" s="2">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2">
         <v>5</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
         <v>4</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
-        <v>3</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>150</v>
@@ -4439,47 +4452,47 @@
         <v>3</v>
       </c>
       <c r="B108" s="2">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2">
         <v>2</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>150</v>
@@ -4487,33 +4500,33 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B112" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>150</v>
@@ -4524,26 +4537,43 @@
         <v>97</v>
       </c>
       <c r="B113" s="2">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="2">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L13" r:id="rId1"/>
-    <hyperlink ref="L33" r:id="rId2"/>
-    <hyperlink ref="K36" r:id="rId3"/>
-    <hyperlink ref="L37" r:id="rId4"/>
-    <hyperlink ref="K5" r:id="rId5"/>
+    <hyperlink ref="L14" r:id="rId1"/>
+    <hyperlink ref="L34" r:id="rId2"/>
+    <hyperlink ref="K37" r:id="rId3"/>
+    <hyperlink ref="L38" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="387">
   <si>
     <t>Nr</t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t>**Rufibach, K.**, Beyersmann, J., Friede, T., Schmoor, C., Stegherr, R.</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2402.17692</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1636,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1745,6 +1748,9 @@
       <c r="G2" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="388">
   <si>
     <t>Nr</t>
   </si>
@@ -1183,6 +1183,9 @@
   </si>
   <si>
     <t>http://arxiv.org/abs/2402.17692</t>
+  </si>
+  <si>
+    <t>ta</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1639,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>371</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2">
         <v>41</v>
@@ -1808,10 +1811,10 @@
         <v>374</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>387</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>383</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="387">
   <si>
     <t>Nr</t>
   </si>
@@ -538,9 +538,6 @@
   </si>
   <si>
     <t>Rajeshwari, S., Barksdale, E., Marchenko, O., Jiang, Q., Ando, Y., Bloomquist, E., Coory, M., Crouse, M., Degtyarev, E., Framke, T., Freidlin, B., Gerber, D.E., Gwise, T., Josephson, F., Hess, L., Kluetz, P., Li, D., Mandrekar, S., Posch, M., Rantell, K., Ratitch, B., Raven, A., Roes, K., **Rufibach, K.**, Sarac, S.B., Simon, R., Singh, H., Theoret, M., Thomson, A., Zuber, E., Shen, Y.L., Pazdur, R.</t>
-  </si>
-  <si>
-    <t>2023+</t>
   </si>
   <si>
     <t>Submitted</t>
@@ -1639,7 +1636,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1699,7 @@
         <v>161</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>162</v>
@@ -1726,39 +1723,39 @@
         <v>167</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="2">
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2" s="2">
         <v>2024</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B3" s="2">
         <v>42</v>
@@ -1767,7 +1764,7 @@
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>147</v>
@@ -1776,63 +1773,63 @@
         <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2">
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>158</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>378</v>
+        <v>176</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2024</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>146</v>
@@ -1841,7 +1838,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" s="2">
         <v>15</v>
@@ -1850,15 +1847,15 @@
         <v>1223858</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2">
         <v>39</v>
@@ -1888,24 +1885,24 @@
         <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
@@ -1926,33 +1923,33 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2">
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
@@ -1973,15 +1970,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="2">
         <v>36</v>
@@ -2011,18 +2008,18 @@
         <v>159</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2">
         <v>2022</v>
@@ -2034,7 +2031,7 @@
         <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H10" s="2">
         <v>112</v>
@@ -2043,21 +2040,21 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2">
         <v>2022</v>
@@ -2069,7 +2066,7 @@
         <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H11" s="2">
         <v>41</v>
@@ -2078,24 +2075,24 @@
         <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="2">
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2">
         <v>2022</v>
@@ -2107,27 +2104,27 @@
         <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="2">
         <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2">
         <v>2021</v>
@@ -2139,7 +2136,7 @@
         <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H13" s="2">
         <v>22</v>
@@ -2151,27 +2148,27 @@
         <v>420</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2">
         <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
@@ -2183,7 +2180,7 @@
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H14" s="2">
         <v>75</v>
@@ -2192,30 +2189,30 @@
         <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
@@ -2227,33 +2224,33 @@
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2">
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
@@ -2265,30 +2262,30 @@
         <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" s="2">
         <v>20</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2">
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="2">
         <v>2021</v>
@@ -2300,36 +2297,36 @@
         <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" s="2">
         <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2">
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D18" s="2">
         <v>2020</v>
@@ -2341,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -2350,18 +2347,18 @@
         <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2">
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="2">
         <v>2020</v>
@@ -2382,27 +2379,27 @@
         <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="T19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2">
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2">
         <v>2020</v>
@@ -2414,33 +2411,33 @@
         <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20" s="2">
         <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2">
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2">
         <v>2019</v>
@@ -2452,7 +2449,7 @@
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" s="2">
         <v>62</v>
@@ -2461,24 +2458,24 @@
         <v>3</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2">
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2">
         <v>2019</v>
@@ -2490,30 +2487,30 @@
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H22" s="2">
         <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2">
         <v>2019</v>
@@ -2525,30 +2522,30 @@
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2">
         <v>18</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="2">
         <v>2016</v>
@@ -2560,33 +2557,33 @@
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="2">
         <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2">
         <v>2016</v>
@@ -2598,7 +2595,7 @@
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25" s="2">
         <v>58</v>
@@ -2607,21 +2604,21 @@
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="2">
         <v>2016</v>
@@ -2633,27 +2630,27 @@
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H26" s="2">
         <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="2">
         <v>2016</v>
@@ -2665,7 +2662,7 @@
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H27" s="2">
         <v>26</v>
@@ -2674,24 +2671,24 @@
         <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2">
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" s="2">
         <v>2014</v>
@@ -2703,33 +2700,33 @@
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H28" s="2">
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="2">
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2">
         <v>2013</v>
@@ -2741,7 +2738,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H29" s="2">
         <v>75</v>
@@ -2750,39 +2747,39 @@
         <v>4</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2">
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2">
         <v>2012</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H30" s="2">
         <v>8</v>
@@ -2795,36 +2792,36 @@
         <v>1-29</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="2">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2">
         <v>2011</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="2">
         <v>53</v>
@@ -2833,39 +2830,39 @@
         <v>4</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="2">
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="2">
         <v>2011</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H32" s="2">
         <v>39</v>
@@ -2878,33 +2875,33 @@
         <v>1-28</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="2">
         <v>2010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" s="2">
         <v>66</v>
@@ -2913,33 +2910,33 @@
         <v>4</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="2">
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H34" s="2">
         <v>22</v>
@@ -2948,39 +2945,39 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="2">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D35" s="2">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H35" s="2">
         <v>19</v>
@@ -2989,74 +2986,74 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2">
         <v>2010</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H36" s="2">
         <v>54</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="2">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2">
         <v>2009</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H37" s="2">
         <v>31</v>
@@ -3065,147 +3062,147 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2">
         <v>2009</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H38" s="2">
         <v>79</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="2">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2">
         <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H39" s="2">
         <v>37</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="2">
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D40" s="2">
         <v>2009</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="2">
         <v>15</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="O40" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="2">
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2">
         <v>2008</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H41" s="2">
         <v>78</v>
@@ -3214,33 +3211,33 @@
         <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2">
         <v>2008</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H42" s="2">
         <v>78</v>
@@ -3249,33 +3246,33 @@
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2">
         <v>2007</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H43" s="2">
         <v>77</v>
@@ -3284,36 +3281,36 @@
         <v>7</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="2">
         <v>2001</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H44" s="2">
         <v>2001</v>
@@ -3322,15 +3319,15 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -3348,7 +3345,7 @@
         <v>150</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H45" s="2">
         <v>72</v>
@@ -3357,18 +3354,18 @@
         <v>5</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D46" s="2">
         <v>2023</v>
@@ -3389,18 +3386,18 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" s="2">
         <v>2021</v>
@@ -3421,18 +3418,18 @@
         <v>4</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2">
         <v>2007</v>
@@ -3444,18 +3441,18 @@
         <v>149</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D49" s="2">
         <v>2007</v>
@@ -3467,7 +3464,7 @@
         <v>149</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="388">
   <si>
     <t>Nr</t>
   </si>
@@ -1183,6 +1183,9 @@
   </si>
   <si>
     <t>ta</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2024.2327291</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1639,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1813,6 +1816,9 @@
       <c r="G4" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="L4" s="3" t="s">
         <v>382</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="389">
   <si>
     <t>Nr</t>
   </si>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1080/19466315.2024.2327291</t>
+  </si>
+  <si>
+    <t>https://www.researchsquare.com/article/rs-3997626/v1</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1642,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1751,6 +1754,9 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>385</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1642,7 +1642,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -1740,13 +1740,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2024</v>
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -1754,51 +1754,51 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2024</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="392">
   <si>
     <t>Nr</t>
   </si>
@@ -1188,7 +1188,16 @@
     <t>https://doi.org/10.1080/19466315.2024.2327291</t>
   </si>
   <si>
-    <t>https://www.researchsquare.com/article/rs-3997626/v1</t>
+    <t>https://doi.org/10.1186/s13063-024-08186-7</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=savvyr</t>
+  </si>
+  <si>
+    <t>https://github.com/openpharma/savvyr</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-safety-benefitrisk-activity-7202352154823573504-Upwe?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +1648,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1660,7 +1669,7 @@
     <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1770,7 +1779,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>175</v>
       </c>
@@ -1797,6 +1806,18 @@
       </c>
       <c r="L3" s="2" t="s">
         <v>385</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="T3" s="2"/>
     </row>
@@ -1810,8 +1831,8 @@
       <c r="C4" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>377</v>
+      <c r="D4" s="2">
+        <v>2024</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>373</v>
@@ -1946,6 +1967,12 @@
       <c r="M7" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="N7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="R7" s="2" t="s">
         <v>293</v>
       </c>
@@ -2168,6 +2195,12 @@
       <c r="M13" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="N13" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="R13" s="2" t="s">
         <v>293</v>
       </c>
@@ -2325,6 +2358,12 @@
       </c>
       <c r="M17" s="2" t="s">
         <v>292</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>293</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="393">
   <si>
     <t>Nr</t>
   </si>
@@ -1198,6 +1198,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-safety-benefitrisk-activity-7202352154823573504-Upwe?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Article 353</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1651,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1796,10 +1799,16 @@
         <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>238</v>
+      </c>
+      <c r="H3" s="2">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>388</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$115</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="395">
   <si>
     <t>Nr</t>
   </si>
@@ -1201,6 +1201,12 @@
   </si>
   <si>
     <t>Article 353</t>
+  </si>
+  <si>
+    <t>Balancing events, not patients, maximizes power of the logrank test: and other insights on unequal randomization in survival trials</t>
+  </si>
+  <si>
+    <t>Yung, G., **Rufibach, K.**, Wolbers, M., Lin, R., Liu, Y.</t>
   </si>
 </sst>
 </file>
@@ -1649,12 +1655,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1744,21 +1750,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -1766,97 +1772,91 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="B3" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2024</v>
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="2">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>385</v>
+        <v>173</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D4" s="2">
         <v>2024</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>238</v>
+      </c>
+      <c r="H4" s="2">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="T4" s="2"/>
     </row>
@@ -1865,145 +1865,122 @@
         <v>175</v>
       </c>
       <c r="B5" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="D5" s="2">
         <v>2024</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H5" s="2">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1223858</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D6" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="H6" s="2">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>290</v>
+        <v>160</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>150</v>
@@ -2015,30 +1992,48 @@
         <v>15</v>
       </c>
       <c r="I8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
@@ -2050,118 +2045,121 @@
         <v>15</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H10" s="2">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="2">
         <v>2022</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H11" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B12" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2">
         <v>2022</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H12" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
@@ -2169,148 +2167,142 @@
         <v>175</v>
       </c>
       <c r="B13" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H13" s="2">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H14" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>420</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H15" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
@@ -2322,92 +2314,98 @@
         <v>20</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2">
         <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H17" s="2">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
-      </c>
-      <c r="I18" s="2">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2415,116 +2413,110 @@
         <v>175</v>
       </c>
       <c r="B19" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2">
         <v>2020</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="H19" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2">
-        <v>4</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D20" s="2">
         <v>2020</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="H20" s="2">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B21" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H21" s="2">
-        <v>62</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2532,34 +2524,37 @@
         <v>175</v>
       </c>
       <c r="B22" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2">
         <v>2019</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H22" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2567,34 +2562,34 @@
         <v>175</v>
       </c>
       <c r="B23" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="2">
         <v>2019</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H23" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2602,16 +2597,16 @@
         <v>175</v>
       </c>
       <c r="B24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>150</v>
@@ -2620,19 +2615,16 @@
         <v>236</v>
       </c>
       <c r="H24" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2640,34 +2632,37 @@
         <v>175</v>
       </c>
       <c r="B25" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="2">
         <v>2016</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H25" s="2">
-        <v>58</v>
-      </c>
-      <c r="I25" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2675,31 +2670,34 @@
         <v>175</v>
       </c>
       <c r="B26" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="2">
         <v>2016</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H26" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2707,37 +2705,31 @@
         <v>175</v>
       </c>
       <c r="B27" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="2">
         <v>2016</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H27" s="2">
-        <v>26</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2745,37 +2737,37 @@
         <v>175</v>
       </c>
       <c r="B28" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D28" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H28" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2783,40 +2775,37 @@
         <v>175</v>
       </c>
       <c r="B29" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H29" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2824,41 +2813,40 @@
         <v>175</v>
       </c>
       <c r="B30" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H30" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <f>"1-29"</f>
-        <v>1-29</v>
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2866,40 +2854,41 @@
         <v>175</v>
       </c>
       <c r="B31" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D31" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H31" s="2">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>4</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>265</v>
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f>"1-29"</f>
+        <v>1-29</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2907,38 +2896,40 @@
         <v>175</v>
       </c>
       <c r="B32" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2">
         <v>2011</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H32" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I32" s="2">
-        <v>6</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f>"1-28"</f>
-        <v>1-28</v>
+        <v>4</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2946,34 +2937,38 @@
         <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D33" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H33" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I33" s="2">
-        <v>4</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>268</v>
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f>"1-28"</f>
+        <v>1-28</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2981,40 +2976,34 @@
         <v>175</v>
       </c>
       <c r="B34" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="2">
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H34" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I34" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3022,37 +3011,40 @@
         <v>175</v>
       </c>
       <c r="B35" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="2">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H35" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I35" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3060,37 +3052,37 @@
         <v>175</v>
       </c>
       <c r="B36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D36" s="2">
         <v>2010</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H36" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3098,34 +3090,37 @@
         <v>175</v>
       </c>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D37" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H37" s="2">
-        <v>31</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3133,37 +3128,34 @@
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2">
         <v>2009</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H38" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3171,37 +3163,37 @@
         <v>175</v>
       </c>
       <c r="B39" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2">
         <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H39" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3209,34 +3201,34 @@
         <v>175</v>
       </c>
       <c r="B40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D40" s="2">
         <v>2009</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H40" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>334</v>
@@ -3247,34 +3239,37 @@
         <v>175</v>
       </c>
       <c r="B41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H41" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3282,16 +3277,16 @@
         <v>175</v>
       </c>
       <c r="B42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D42" s="2">
         <v>2008</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>150</v>
@@ -3303,13 +3298,13 @@
         <v>78</v>
       </c>
       <c r="I42" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3317,136 +3312,139 @@
         <v>175</v>
       </c>
       <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" s="2">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H43" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" s="2">
-        <v>7</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H44" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I44" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>2010</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H46" s="2">
         <v>72</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I46" s="2">
         <v>5</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H46" s="2">
-        <v>15</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3454,16 +3452,16 @@
         <v>362</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D47" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>150</v>
@@ -3472,76 +3470,91 @@
         <v>158</v>
       </c>
       <c r="H47" s="2">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="2">
         <v>13</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I48" s="2">
         <v>4</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="D49" s="2">
         <v>2007</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
@@ -3549,13 +3562,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>150</v>
@@ -3566,47 +3579,47 @@
         <v>3</v>
       </c>
       <c r="B52" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="F53" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2">
         <v>57</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2">
-        <v>56</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>150</v>
@@ -3617,13 +3630,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>150</v>
@@ -3634,13 +3647,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>150</v>
@@ -3651,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>150</v>
@@ -3668,13 +3681,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>150</v>
@@ -3685,47 +3698,47 @@
         <v>3</v>
       </c>
       <c r="B59" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
+        <v>51</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="F60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
         <v>50</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>49</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>150</v>
@@ -3736,47 +3749,47 @@
         <v>3</v>
       </c>
       <c r="B62" s="2">
+        <v>49</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
         <v>48</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
         <v>47</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
-        <v>46</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>150</v>
@@ -3787,13 +3800,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>150</v>
@@ -3804,13 +3817,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>150</v>
@@ -3821,13 +3834,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>150</v>
@@ -3838,13 +3851,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>150</v>
@@ -3855,13 +3868,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>150</v>
@@ -3872,13 +3885,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>150</v>
@@ -3889,13 +3902,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>150</v>
@@ -3906,30 +3919,30 @@
         <v>3</v>
       </c>
       <c r="B72" s="2">
+        <v>39</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2">
         <v>38</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2">
-        <v>37</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>150</v>
@@ -3940,64 +3953,64 @@
         <v>3</v>
       </c>
       <c r="B74" s="2">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
         <v>36</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="F75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
         <v>35</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="F76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>34</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
-        <v>33</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>150</v>
@@ -4008,47 +4021,47 @@
         <v>3</v>
       </c>
       <c r="B78" s="2">
+        <v>33</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
         <v>32</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="F79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
         <v>31</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
-        <v>30</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>150</v>
@@ -4059,13 +4072,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>150</v>
@@ -4076,13 +4089,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>150</v>
@@ -4093,13 +4106,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>150</v>
@@ -4113,44 +4126,44 @@
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="F85" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2">
         <v>26</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2">
-        <v>25</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>150</v>
@@ -4161,13 +4174,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>150</v>
@@ -4178,13 +4191,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>150</v>
@@ -4195,13 +4208,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>150</v>
@@ -4212,13 +4225,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>150</v>
@@ -4229,13 +4242,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>150</v>
@@ -4246,13 +4259,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>150</v>
@@ -4263,98 +4276,98 @@
         <v>3</v>
       </c>
       <c r="B93" s="2">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2">
         <v>18</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="F94" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
         <v>17</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="F95" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
         <v>16</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="F96" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
         <v>15</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
         <v>14</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
-        <v>13</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>150</v>
@@ -4365,13 +4378,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>150</v>
@@ -4382,13 +4395,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>150</v>
@@ -4399,13 +4412,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>150</v>
@@ -4416,64 +4429,64 @@
         <v>3</v>
       </c>
       <c r="B102" s="2">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2">
         <v>9</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="2">
+      <c r="F103" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2">
         <v>8</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="F104" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
         <v>7</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2">
-        <v>6</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>150</v>
@@ -4484,47 +4497,47 @@
         <v>3</v>
       </c>
       <c r="B106" s="2">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
         <v>5</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="F107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
         <v>4</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2">
-        <v>3</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>150</v>
@@ -4535,47 +4548,47 @@
         <v>3</v>
       </c>
       <c r="B109" s="2">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2">
         <v>2</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>150</v>
@@ -4583,33 +4596,33 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B113" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>150</v>
@@ -4620,26 +4633,43 @@
         <v>97</v>
       </c>
       <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="2">
         <v>1</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L14" r:id="rId1"/>
-    <hyperlink ref="L34" r:id="rId2"/>
-    <hyperlink ref="K37" r:id="rId3"/>
-    <hyperlink ref="L38" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="L15" r:id="rId1"/>
+    <hyperlink ref="L35" r:id="rId2"/>
+    <hyperlink ref="K38" r:id="rId3"/>
+    <hyperlink ref="L39" r:id="rId4"/>
+    <hyperlink ref="K7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="400">
   <si>
     <t>Nr</t>
   </si>
@@ -1207,6 +1207,21 @@
   </si>
   <si>
     <t>Yung, G., **Rufibach, K.**, Wolbers, M., Lin, R., Liu, Y.</t>
+  </si>
+  <si>
+    <t>Using shrinkage methods to estimate treatment effects in overlapping subgroups in randomized clinical trials with time-to-event endpoints</t>
+  </si>
+  <si>
+    <t>Wolbers, M., Vázquez Rabuñal, M., Li, K., **Rufibach, K.**, Sabanés Bové, D.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=bonsaiforest</t>
+  </si>
+  <si>
+    <t>https://insightsengineering.github.io/bonsaiforest/latest-tag/</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2407.03420</t>
   </si>
 </sst>
 </file>
@@ -1655,12 +1670,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1750,21 +1765,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -1772,23 +1787,29 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1797,96 +1818,93 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="B4" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2024</v>
+        <v>169</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="2">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>385</v>
+        <v>173</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D5" s="2">
         <v>2024</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>158</v>
+        <v>238</v>
+      </c>
+      <c r="H5" s="2">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="T5" s="2"/>
     </row>
@@ -1895,145 +1913,122 @@
         <v>175</v>
       </c>
       <c r="B6" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="D6" s="2">
         <v>2024</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="2">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1223858</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="H7" s="2">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2">
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>290</v>
+        <v>160</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
@@ -2045,30 +2040,48 @@
         <v>15</v>
       </c>
       <c r="I9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2">
         <v>2023</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
@@ -2080,118 +2093,121 @@
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H11" s="2">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B12" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="2">
         <v>2022</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H12" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="2">
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
@@ -2199,148 +2215,142 @@
         <v>175</v>
       </c>
       <c r="B14" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H14" s="2">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H15" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>420</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2">
         <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
@@ -2352,92 +2362,98 @@
         <v>20</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="2">
         <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H18" s="2">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H19" s="2">
-        <v>4</v>
-      </c>
-      <c r="I19" s="2">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2445,116 +2461,110 @@
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D20" s="2">
         <v>2020</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="H20" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2">
-        <v>4</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B21" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2">
         <v>2020</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="H21" s="2">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H22" s="2">
-        <v>62</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2562,34 +2572,37 @@
         <v>175</v>
       </c>
       <c r="B23" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2">
         <v>2019</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H23" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2597,34 +2610,34 @@
         <v>175</v>
       </c>
       <c r="B24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="2">
         <v>2019</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H24" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2632,16 +2645,16 @@
         <v>175</v>
       </c>
       <c r="B25" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>150</v>
@@ -2650,19 +2663,16 @@
         <v>236</v>
       </c>
       <c r="H25" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2670,34 +2680,37 @@
         <v>175</v>
       </c>
       <c r="B26" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2">
         <v>2016</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H26" s="2">
-        <v>58</v>
-      </c>
-      <c r="I26" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2705,31 +2718,34 @@
         <v>175</v>
       </c>
       <c r="B27" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2">
         <v>2016</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H27" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2737,37 +2753,31 @@
         <v>175</v>
       </c>
       <c r="B28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2">
         <v>2016</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H28" s="2">
-        <v>26</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2775,37 +2785,37 @@
         <v>175</v>
       </c>
       <c r="B29" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H29" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2813,40 +2823,37 @@
         <v>175</v>
       </c>
       <c r="B30" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H30" s="2">
-        <v>75</v>
-      </c>
-      <c r="I30" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2854,41 +2861,40 @@
         <v>175</v>
       </c>
       <c r="B31" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D31" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H31" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f>"1-29"</f>
-        <v>1-29</v>
+        <v>4</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2896,40 +2902,41 @@
         <v>175</v>
       </c>
       <c r="B32" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D32" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H32" s="2">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>4</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>265</v>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f>"1-29"</f>
+        <v>1-29</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2937,38 +2944,40 @@
         <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2">
         <v>2011</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H33" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I33" s="2">
-        <v>6</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f>"1-28"</f>
-        <v>1-28</v>
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2976,34 +2985,38 @@
         <v>175</v>
       </c>
       <c r="B34" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H34" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I34" s="2">
-        <v>4</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>268</v>
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>"1-28"</f>
+        <v>1-28</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3011,40 +3024,34 @@
         <v>175</v>
       </c>
       <c r="B35" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="2">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H35" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I35" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3052,37 +3059,40 @@
         <v>175</v>
       </c>
       <c r="B36" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="2">
         <v>2010</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H36" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I36" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3090,37 +3100,37 @@
         <v>175</v>
       </c>
       <c r="B37" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D37" s="2">
         <v>2010</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H37" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3128,34 +3138,37 @@
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D38" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H38" s="2">
-        <v>31</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3163,37 +3176,34 @@
         <v>175</v>
       </c>
       <c r="B39" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2">
         <v>2009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H39" s="2">
-        <v>79</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3201,37 +3211,37 @@
         <v>175</v>
       </c>
       <c r="B40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="D40" s="2">
         <v>2009</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H40" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3239,34 +3249,34 @@
         <v>175</v>
       </c>
       <c r="B41" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D41" s="2">
         <v>2009</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H41" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>334</v>
@@ -3277,34 +3287,37 @@
         <v>175</v>
       </c>
       <c r="B42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H42" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3312,16 +3325,16 @@
         <v>175</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2">
         <v>2008</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>150</v>
@@ -3333,13 +3346,13 @@
         <v>78</v>
       </c>
       <c r="I43" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3347,136 +3360,139 @@
         <v>175</v>
       </c>
       <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" s="2">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H44" s="2">
-        <v>77</v>
-      </c>
-      <c r="I44" s="2">
-        <v>7</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D45" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H45" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I45" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>2010</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H47" s="2">
         <v>72</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I47" s="2">
         <v>5</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" s="2">
-        <v>15</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3484,16 +3500,16 @@
         <v>362</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D48" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>150</v>
@@ -3502,311 +3518,326 @@
         <v>158</v>
       </c>
       <c r="H48" s="2">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="2">
         <v>13</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I49" s="2">
         <v>4</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B49" s="2">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="D50" s="2">
         <v>2007</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="52" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
         <v>60</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="F52" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
         <v>59</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2">
-        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="F54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
         <v>57</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="F55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
         <v>56</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="F56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
         <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
-        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="F58" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
         <v>53</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="F59" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
         <v>52</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2">
-        <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="F61" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
         <v>50</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
         <v>49</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
         <v>48</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="F64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
         <v>47</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2">
-        <v>46</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>150</v>
@@ -3817,13 +3848,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>150</v>
@@ -3834,13 +3865,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>150</v>
@@ -3851,13 +3882,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>150</v>
@@ -3868,13 +3899,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>150</v>
@@ -3885,13 +3916,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>150</v>
@@ -3902,13 +3933,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>150</v>
@@ -3919,13 +3950,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>150</v>
@@ -3936,30 +3967,30 @@
         <v>3</v>
       </c>
       <c r="B73" s="2">
+        <v>39</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
         <v>38</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
-        <v>37</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>150</v>
@@ -3970,64 +4001,64 @@
         <v>3</v>
       </c>
       <c r="B75" s="2">
+        <v>37</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
         <v>36</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="F76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>35</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="F77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
         <v>34</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
-        <v>33</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>150</v>
@@ -4038,47 +4069,47 @@
         <v>3</v>
       </c>
       <c r="B79" s="2">
+        <v>33</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
         <v>32</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="F80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
         <v>31</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2">
-        <v>30</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>150</v>
@@ -4089,13 +4120,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>150</v>
@@ -4106,13 +4137,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>150</v>
@@ -4123,13 +4154,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>150</v>
@@ -4143,44 +4174,44 @@
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="F86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="2">
         <v>26</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="2">
-        <v>25</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>150</v>
@@ -4191,13 +4222,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>150</v>
@@ -4208,13 +4239,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>150</v>
@@ -4225,13 +4256,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>150</v>
@@ -4242,13 +4273,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>150</v>
@@ -4259,13 +4290,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>150</v>
@@ -4276,13 +4307,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>150</v>
@@ -4293,98 +4324,98 @@
         <v>3</v>
       </c>
       <c r="B94" s="2">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
         <v>18</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="F95" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
         <v>17</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="F96" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
         <v>16</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
         <v>15</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="F98" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
         <v>14</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="2">
-        <v>13</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>150</v>
@@ -4395,13 +4426,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>150</v>
@@ -4412,13 +4443,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>150</v>
@@ -4429,13 +4460,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>150</v>
@@ -4446,64 +4477,64 @@
         <v>3</v>
       </c>
       <c r="B103" s="2">
+        <v>10</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2">
         <v>9</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="F104" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
         <v>8</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="F105" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2">
         <v>7</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2">
-        <v>6</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>150</v>
@@ -4514,47 +4545,47 @@
         <v>3</v>
       </c>
       <c r="B107" s="2">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
         <v>5</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="F108" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2">
         <v>4</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="2">
-        <v>3</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>150</v>
@@ -4565,47 +4596,47 @@
         <v>3</v>
       </c>
       <c r="B110" s="2">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="2">
         <v>2</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>150</v>
@@ -4613,33 +4644,33 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B114" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>150</v>
@@ -4650,29 +4681,47 @@
         <v>97</v>
       </c>
       <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="2">
         <v>1</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L15" r:id="rId1"/>
-    <hyperlink ref="L35" r:id="rId2"/>
-    <hyperlink ref="K38" r:id="rId3"/>
-    <hyperlink ref="L39" r:id="rId4"/>
-    <hyperlink ref="K7" r:id="rId5"/>
+    <hyperlink ref="L16" r:id="rId1"/>
+    <hyperlink ref="L36" r:id="rId2"/>
+    <hyperlink ref="K39" r:id="rId3"/>
+    <hyperlink ref="L40" r:id="rId4"/>
+    <hyperlink ref="K8" r:id="rId5"/>
+    <hyperlink ref="O2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A81C0E-D2C2-4F5C-95A1-31C61094A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$116</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="401">
   <si>
     <t>Nr</t>
   </si>
@@ -1222,12 +1236,15 @@
   </si>
   <si>
     <t>http://arxiv.org/abs/2407.03420</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2407.11729</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1282,8 +1299,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1669,16 +1686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1787,6 +1804,9 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="N2" s="2" t="s">
         <v>398</v>
       </c>
@@ -4713,12 +4733,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L16" r:id="rId1"/>
-    <hyperlink ref="L36" r:id="rId2"/>
-    <hyperlink ref="K39" r:id="rId3"/>
-    <hyperlink ref="L40" r:id="rId4"/>
-    <hyperlink ref="K8" r:id="rId5"/>
-    <hyperlink ref="O2" r:id="rId6"/>
+    <hyperlink ref="L16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L36" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A81C0E-D2C2-4F5C-95A1-31C61094A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DB3574-D0C9-4AAD-B5AD-1B28607D0A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1689,10 +1689,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DB3574-D0C9-4AAD-B5AD-1B28607D0A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1B95DD-FECE-4635-B890-51E5C9F2DE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,9 +1690,9 @@
   <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2">
         <v>43</v>
@@ -1859,10 +1859,10 @@
         <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>173</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1B95DD-FECE-4635-B890-51E5C9F2DE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1253E65D-C297-4B6D-907B-8279C86928C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="404">
   <si>
     <t>Nr</t>
   </si>
@@ -1239,6 +1239,15 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2407.11729</t>
+  </si>
+  <si>
+    <t>Use of Brier score to assess binary predictions</t>
+  </si>
+  <si>
+    <t>Journal of clinical epidemiology</t>
+  </si>
+  <si>
+    <t>938-939</t>
   </si>
 </sst>
 </file>
@@ -1687,12 +1696,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3520,7 +3529,7 @@
         <v>362</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>378</v>
@@ -3552,7 +3561,7 @@
         <v>362</v>
       </c>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>379</v>
@@ -3579,67 +3588,82 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D50" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>401</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="67.5" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="H50" s="2">
+        <v>63</v>
+      </c>
+      <c r="I50" s="2">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="D51" s="2">
         <v>2007</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
@@ -3647,13 +3671,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>150</v>
@@ -3664,47 +3688,47 @@
         <v>3</v>
       </c>
       <c r="B54" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="F55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
         <v>57</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
-        <v>56</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>150</v>
@@ -3715,13 +3739,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>150</v>
@@ -3732,13 +3756,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>150</v>
@@ -3749,13 +3773,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>150</v>
@@ -3766,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>150</v>
@@ -3783,47 +3807,47 @@
         <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
         <v>50</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
-        <v>49</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>150</v>
@@ -3834,47 +3858,47 @@
         <v>3</v>
       </c>
       <c r="B64" s="2">
+        <v>49</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
         <v>48</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="F65" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
         <v>47</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2">
-        <v>46</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>150</v>
@@ -3885,13 +3909,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>150</v>
@@ -3902,13 +3926,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>150</v>
@@ -3919,13 +3943,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>150</v>
@@ -3936,13 +3960,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>150</v>
@@ -3953,13 +3977,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>150</v>
@@ -3970,13 +3994,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>150</v>
@@ -3987,13 +4011,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>150</v>
@@ -4004,30 +4028,30 @@
         <v>3</v>
       </c>
       <c r="B74" s="2">
+        <v>39</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
         <v>38</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2">
-        <v>37</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>150</v>
@@ -4038,64 +4062,64 @@
         <v>3</v>
       </c>
       <c r="B76" s="2">
+        <v>37</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>36</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="F77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
         <v>35</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="F78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
         <v>34</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
-        <v>33</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>150</v>
@@ -4106,47 +4130,47 @@
         <v>3</v>
       </c>
       <c r="B80" s="2">
+        <v>33</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
         <v>32</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="F81" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
         <v>31</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2">
-        <v>30</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>150</v>
@@ -4157,13 +4181,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>150</v>
@@ -4174,13 +4198,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>150</v>
@@ -4191,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>150</v>
@@ -4211,44 +4235,44 @@
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="2">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="F87" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2">
         <v>26</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="2">
-        <v>25</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>150</v>
@@ -4259,13 +4283,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>150</v>
@@ -4276,13 +4300,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>150</v>
@@ -4293,13 +4317,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>150</v>
@@ -4310,13 +4334,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>150</v>
@@ -4327,13 +4351,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>150</v>
@@ -4344,13 +4368,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>150</v>
@@ -4361,98 +4385,98 @@
         <v>3</v>
       </c>
       <c r="B95" s="2">
+        <v>19</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
         <v>18</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="F96" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
         <v>17</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
         <v>16</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="F98" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
         <v>15</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="F99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
         <v>14</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2">
-        <v>13</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>150</v>
@@ -4463,13 +4487,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>150</v>
@@ -4480,13 +4504,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>150</v>
@@ -4497,13 +4521,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>150</v>
@@ -4514,64 +4538,64 @@
         <v>3</v>
       </c>
       <c r="B104" s="2">
+        <v>10</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
         <v>9</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="F105" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2">
         <v>8</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
         <v>7</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
-        <v>6</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>150</v>
@@ -4582,47 +4606,47 @@
         <v>3</v>
       </c>
       <c r="B108" s="2">
+        <v>6</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2">
         <v>5</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="2">
+      <c r="F109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2">
         <v>4</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="2">
-        <v>3</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>150</v>
@@ -4633,47 +4657,47 @@
         <v>3</v>
       </c>
       <c r="B111" s="2">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2">
         <v>2</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>150</v>
@@ -4681,33 +4705,33 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B115" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>150</v>
@@ -4718,15 +4742,32 @@
         <v>97</v>
       </c>
       <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="2">
         <v>1</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>150</v>
       </c>
     </row>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1253E65D-C297-4B6D-907B-8279C86928C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D5F80-2A9F-42D6-995D-BA778EE502AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="408">
   <si>
     <t>Nr</t>
   </si>
@@ -1248,6 +1248,18 @@
   </si>
   <si>
     <t>938-939</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/20461486</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclinepi.2009.11.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2021.1872697</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19466315.2021.1883473</t>
   </si>
 </sst>
 </file>
@@ -1699,9 +1711,9 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3555,8 +3567,11 @@
       <c r="J48" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="K48" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>362</v>
       </c>
@@ -3587,8 +3602,11 @@
       <c r="J49" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="K49" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>362</v>
       </c>
@@ -3619,8 +3637,11 @@
       <c r="J50" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="K50" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>365</v>
       </c>
@@ -3643,7 +3664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>365</v>
       </c>
@@ -3665,8 +3686,11 @@
       <c r="G52" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="K52" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -3683,7 +3707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3724,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3751,7 +3775,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -3768,7 +3792,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3809,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3802,7 +3826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3819,7 +3843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3836,7 +3860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3853,7 +3877,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D5F80-2A9F-42D6-995D-BA778EE502AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633979CF-75C1-44DE-A54A-158E3BD6A5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="410">
   <si>
     <t>Nr</t>
   </si>
@@ -1260,6 +1260,12 @@
   </si>
   <si>
     <t>https://doi.org/10.1080/19466315.2021.1883473</t>
+  </si>
+  <si>
+    <t>Asikanius, E., Hofner, B., Hampson, L.V., Wassmer, G., Jennison, C., Mielke, T., Kunz, C.U., **Rufibach, K.**</t>
+  </si>
+  <si>
+    <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
   </si>
 </sst>
 </file>
@@ -1708,12 +1714,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T117"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1803,21 +1809,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -1825,32 +1831,23 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1859,123 +1856,126 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="B4" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2024</v>
+        <v>169</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="2">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>388</v>
+        <v>234</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>385</v>
+        <v>173</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D6" s="2">
         <v>2024</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>238</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="T6" s="2"/>
     </row>
@@ -1984,145 +1984,122 @@
         <v>175</v>
       </c>
       <c r="B7" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2">
         <v>2024</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1223858</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D8" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="H8" s="2">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H9" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>290</v>
+        <v>160</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D10" s="2">
         <v>2023</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
@@ -2134,30 +2111,48 @@
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2">
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
@@ -2169,118 +2164,121 @@
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B12" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D12" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="2">
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H13" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="2">
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H14" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
@@ -2288,148 +2286,142 @@
         <v>175</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H15" s="2">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H16" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>420</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="2">
         <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H17" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2">
         <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
@@ -2441,92 +2433,98 @@
         <v>20</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2">
         <v>2021</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H19" s="2">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H20" s="2">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2534,116 +2532,110 @@
         <v>175</v>
       </c>
       <c r="B21" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D21" s="2">
         <v>2020</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="H21" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2">
         <v>2020</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="H22" s="2">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B23" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2">
-        <v>62</v>
-      </c>
-      <c r="I23" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2651,34 +2643,37 @@
         <v>175</v>
       </c>
       <c r="B24" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="2">
         <v>2019</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H24" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2686,34 +2681,34 @@
         <v>175</v>
       </c>
       <c r="B25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2">
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H25" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2721,16 +2716,16 @@
         <v>175</v>
       </c>
       <c r="B26" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>150</v>
@@ -2739,19 +2734,16 @@
         <v>236</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2759,34 +2751,37 @@
         <v>175</v>
       </c>
       <c r="B27" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2">
         <v>2016</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H27" s="2">
-        <v>58</v>
-      </c>
-      <c r="I27" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2794,31 +2789,34 @@
         <v>175</v>
       </c>
       <c r="B28" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="2">
         <v>2016</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H28" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2826,37 +2824,31 @@
         <v>175</v>
       </c>
       <c r="B29" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2">
         <v>2016</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H29" s="2">
-        <v>26</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2864,37 +2856,37 @@
         <v>175</v>
       </c>
       <c r="B30" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H30" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2902,40 +2894,37 @@
         <v>175</v>
       </c>
       <c r="B31" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D31" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="2">
-        <v>75</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2943,41 +2932,40 @@
         <v>175</v>
       </c>
       <c r="B32" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H32" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f>"1-29"</f>
-        <v>1-29</v>
+        <v>4</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2985,40 +2973,41 @@
         <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D33" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H33" s="2">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2">
-        <v>4</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>265</v>
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f>"1-29"</f>
+        <v>1-29</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3026,38 +3015,40 @@
         <v>175</v>
       </c>
       <c r="B34" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2">
         <v>2011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H34" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I34" s="2">
-        <v>6</v>
-      </c>
-      <c r="J34" s="2" t="str">
-        <f>"1-28"</f>
-        <v>1-28</v>
+        <v>4</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3065,34 +3056,38 @@
         <v>175</v>
       </c>
       <c r="B35" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D35" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H35" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I35" s="2">
-        <v>4</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>268</v>
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f>"1-28"</f>
+        <v>1-28</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3100,40 +3095,34 @@
         <v>175</v>
       </c>
       <c r="B36" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="2">
         <v>2010</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H36" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I36" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3141,37 +3130,40 @@
         <v>175</v>
       </c>
       <c r="B37" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="2">
         <v>2010</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H37" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3179,37 +3171,37 @@
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D38" s="2">
         <v>2010</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H38" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3217,34 +3209,37 @@
         <v>175</v>
       </c>
       <c r="B39" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D39" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H39" s="2">
-        <v>31</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3252,37 +3247,34 @@
         <v>175</v>
       </c>
       <c r="B40" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2">
         <v>2009</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H40" s="2">
-        <v>79</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3290,37 +3282,37 @@
         <v>175</v>
       </c>
       <c r="B41" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2">
         <v>2009</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H41" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3328,34 +3320,34 @@
         <v>175</v>
       </c>
       <c r="B42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D42" s="2">
         <v>2009</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H42" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>334</v>
@@ -3366,34 +3358,37 @@
         <v>175</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H43" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3401,16 +3396,16 @@
         <v>175</v>
       </c>
       <c r="B44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D44" s="2">
         <v>2008</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>150</v>
@@ -3422,13 +3417,13 @@
         <v>78</v>
       </c>
       <c r="I44" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3436,139 +3431,139 @@
         <v>175</v>
       </c>
       <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H45" s="2">
-        <v>77</v>
-      </c>
-      <c r="I45" s="2">
-        <v>7</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D46" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H46" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I46" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>2010</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H48" s="2">
         <v>72</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I48" s="2">
         <v>5</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B48" s="2">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="2">
-        <v>15</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
@@ -3576,16 +3571,16 @@
         <v>362</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D49" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>150</v>
@@ -3594,16 +3589,16 @@
         <v>158</v>
       </c>
       <c r="H49" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
@@ -3611,100 +3606,118 @@
         <v>362</v>
       </c>
       <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="2">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <v>2010</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H51" s="2">
         <v>63</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I51" s="2">
         <v>8</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B51" s="2">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="D52" s="2">
         <v>2007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
@@ -3712,13 +3725,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>150</v>
@@ -3729,47 +3742,47 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
+        <v>58</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="F56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
         <v>57</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>150</v>
@@ -3780,13 +3793,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>150</v>
@@ -3797,13 +3810,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>150</v>
@@ -3814,13 +3827,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>150</v>
@@ -3831,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>150</v>
@@ -3848,47 +3861,47 @@
         <v>3</v>
       </c>
       <c r="B62" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
         <v>50</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
-        <v>49</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>150</v>
@@ -3899,47 +3912,47 @@
         <v>3</v>
       </c>
       <c r="B65" s="2">
+        <v>49</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
         <v>48</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="F66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
         <v>47</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2">
-        <v>46</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>150</v>
@@ -3950,13 +3963,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>150</v>
@@ -3967,13 +3980,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>150</v>
@@ -3984,13 +3997,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>150</v>
@@ -4001,13 +4014,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>150</v>
@@ -4018,13 +4031,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>150</v>
@@ -4035,13 +4048,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>150</v>
@@ -4052,13 +4065,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>150</v>
@@ -4069,30 +4082,30 @@
         <v>3</v>
       </c>
       <c r="B75" s="2">
+        <v>39</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
         <v>38</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
-        <v>37</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>150</v>
@@ -4103,64 +4116,64 @@
         <v>3</v>
       </c>
       <c r="B77" s="2">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
         <v>36</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="F78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
         <v>35</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="F79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
         <v>34</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
-        <v>33</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>150</v>
@@ -4171,47 +4184,47 @@
         <v>3</v>
       </c>
       <c r="B81" s="2">
+        <v>33</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
         <v>32</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="F82" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
         <v>31</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2">
-        <v>30</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>150</v>
@@ -4222,13 +4235,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>150</v>
@@ -4239,13 +4252,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>150</v>
@@ -4256,13 +4269,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>150</v>
@@ -4276,44 +4289,44 @@
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="F88" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2">
         <v>26</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="2">
-        <v>25</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>150</v>
@@ -4324,13 +4337,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>150</v>
@@ -4341,13 +4354,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>150</v>
@@ -4358,13 +4371,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>150</v>
@@ -4375,13 +4388,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>150</v>
@@ -4392,13 +4405,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>150</v>
@@ -4409,13 +4422,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>150</v>
@@ -4426,98 +4439,98 @@
         <v>3</v>
       </c>
       <c r="B96" s="2">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
         <v>18</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
         <v>17</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="F98" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
         <v>16</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="F99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
         <v>15</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="F100" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
         <v>14</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2">
-        <v>13</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>150</v>
@@ -4528,13 +4541,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>150</v>
@@ -4545,13 +4558,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>150</v>
@@ -4562,13 +4575,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>150</v>
@@ -4579,64 +4592,64 @@
         <v>3</v>
       </c>
       <c r="B105" s="2">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2">
         <v>9</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
         <v>8</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="F107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
         <v>7</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2">
-        <v>6</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>150</v>
@@ -4647,47 +4660,47 @@
         <v>3</v>
       </c>
       <c r="B109" s="2">
+        <v>6</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2">
         <v>5</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="F110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>150</v>
@@ -4698,47 +4711,47 @@
         <v>3</v>
       </c>
       <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="2">
         <v>2</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>150</v>
@@ -4746,33 +4759,33 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B116" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>150</v>
@@ -4783,27 +4796,44 @@
         <v>97</v>
       </c>
       <c r="B117" s="2">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" s="2">
         <v>1</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L36" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633979CF-75C1-44DE-A54A-158E3BD6A5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3864A0-336F-4EDA-AC5F-D34DFA2B29A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="411">
   <si>
     <t>Nr</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2410.01478</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1722,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1831,6 +1834,9 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3864A0-336F-4EDA-AC5F-D34DFA2B29A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056A245C-A40B-41D9-976A-AE021AFB00F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="418">
   <si>
     <t>Nr</t>
   </si>
@@ -1269,6 +1269,27 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2410.01478</t>
+  </si>
+  <si>
+    <t>Yang, G., **Rufibach, K.**, Wolbers, M., Yan, M., Wang, J.</t>
+  </si>
+  <si>
+    <t>"6 choose 4": A framework to understand and facilitate discussion of strategies for overall survival safety monitoring</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2410.04020</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/trials_interim/trials_interim.html</t>
+  </si>
+  <si>
+    <t>https://github.com/oncoestimand/trials_interim</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-rct-collaboration-activity-7247509486347677696-5gsF?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_rct-biostatistics-drugdevelopment-activity-7219424232336670720-hLhE?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -1717,12 +1738,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1812,7 +1833,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -1837,23 +1858,32 @@
       <c r="L2" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>416</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1862,31 +1892,28 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>397</v>
+        <v>413</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>416</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B4" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>149</v>
@@ -1895,123 +1922,129 @@
         <v>172</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="B5" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2024</v>
+        <v>169</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="2">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>388</v>
+        <v>234</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>385</v>
+        <v>173</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D7" s="2">
         <v>2024</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>238</v>
+      </c>
+      <c r="H7" s="2">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="T7" s="2"/>
     </row>
@@ -2020,145 +2053,122 @@
         <v>175</v>
       </c>
       <c r="B8" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="D8" s="2">
         <v>2024</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H8" s="2">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1223858</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="H9" s="2">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2">
         <v>2023</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2">
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>290</v>
+        <v>160</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D11" s="2">
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
@@ -2170,30 +2180,48 @@
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B12" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D12" s="2">
         <v>2023</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
@@ -2205,118 +2233,121 @@
         <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H13" s="2">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="2">
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H14" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="2">
         <v>2022</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H15" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
@@ -2324,148 +2355,142 @@
         <v>175</v>
       </c>
       <c r="B16" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H16" s="2">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2">
         <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H17" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>420</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="2">
         <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H18" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2">
         <v>2021</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
@@ -2477,92 +2502,98 @@
         <v>20</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2">
         <v>2021</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H20" s="2">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B21" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H21" s="2">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2570,116 +2601,110 @@
         <v>175</v>
       </c>
       <c r="B22" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D22" s="2">
         <v>2020</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2">
-        <v>4</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B23" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D23" s="2">
         <v>2020</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="H23" s="2">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B24" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H24" s="2">
-        <v>62</v>
-      </c>
-      <c r="I24" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2687,34 +2712,37 @@
         <v>175</v>
       </c>
       <c r="B25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="2">
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H25" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2722,34 +2750,34 @@
         <v>175</v>
       </c>
       <c r="B26" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2">
         <v>2019</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H26" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2757,16 +2785,16 @@
         <v>175</v>
       </c>
       <c r="B27" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>150</v>
@@ -2775,19 +2803,16 @@
         <v>236</v>
       </c>
       <c r="H27" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2795,34 +2820,37 @@
         <v>175</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" s="2">
         <v>2016</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H28" s="2">
-        <v>58</v>
-      </c>
-      <c r="I28" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2830,31 +2858,34 @@
         <v>175</v>
       </c>
       <c r="B29" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="2">
         <v>2016</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H29" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2862,37 +2893,31 @@
         <v>175</v>
       </c>
       <c r="B30" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2">
         <v>2016</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H30" s="2">
-        <v>26</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2900,37 +2925,37 @@
         <v>175</v>
       </c>
       <c r="B31" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D31" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H31" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
@@ -2938,40 +2963,37 @@
         <v>175</v>
       </c>
       <c r="B32" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H32" s="2">
-        <v>75</v>
-      </c>
-      <c r="I32" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2979,41 +3001,40 @@
         <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D33" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f>"1-29"</f>
-        <v>1-29</v>
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3021,40 +3042,41 @@
         <v>175</v>
       </c>
       <c r="B34" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D34" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H34" s="2">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2">
-        <v>4</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>265</v>
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>"1-29"</f>
+        <v>1-29</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3062,38 +3084,40 @@
         <v>175</v>
       </c>
       <c r="B35" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D35" s="2">
         <v>2011</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H35" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I35" s="2">
-        <v>6</v>
-      </c>
-      <c r="J35" s="2" t="str">
-        <f>"1-28"</f>
-        <v>1-28</v>
+        <v>4</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3101,34 +3125,38 @@
         <v>175</v>
       </c>
       <c r="B36" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H36" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I36" s="2">
-        <v>4</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>268</v>
+        <v>6</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f>"1-28"</f>
+        <v>1-28</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3136,40 +3164,34 @@
         <v>175</v>
       </c>
       <c r="B37" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="2">
         <v>2010</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H37" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I37" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3177,37 +3199,40 @@
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2">
         <v>2010</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H38" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3215,37 +3240,37 @@
         <v>175</v>
       </c>
       <c r="B39" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D39" s="2">
         <v>2010</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H39" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3253,34 +3278,37 @@
         <v>175</v>
       </c>
       <c r="B40" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D40" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H40" s="2">
-        <v>31</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3288,37 +3316,34 @@
         <v>175</v>
       </c>
       <c r="B41" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D41" s="2">
         <v>2009</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H41" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3326,37 +3351,37 @@
         <v>175</v>
       </c>
       <c r="B42" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="D42" s="2">
         <v>2009</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H42" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3364,34 +3389,34 @@
         <v>175</v>
       </c>
       <c r="B43" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D43" s="2">
         <v>2009</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H43" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>334</v>
@@ -3402,34 +3427,37 @@
         <v>175</v>
       </c>
       <c r="B44" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H44" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3437,16 +3465,16 @@
         <v>175</v>
       </c>
       <c r="B45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D45" s="2">
         <v>2008</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>150</v>
@@ -3458,13 +3486,13 @@
         <v>78</v>
       </c>
       <c r="I45" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3472,139 +3500,139 @@
         <v>175</v>
       </c>
       <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" s="2">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H46" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" s="2">
-        <v>7</v>
-      </c>
       <c r="J46" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D47" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H47" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D49" s="2">
         <v>2010</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="2">
         <v>72</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I49" s="2">
         <v>5</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B49" s="2">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H49" s="2">
-        <v>15</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
@@ -3612,16 +3640,16 @@
         <v>362</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D50" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>150</v>
@@ -3630,16 +3658,16 @@
         <v>158</v>
       </c>
       <c r="H50" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
@@ -3647,100 +3675,118 @@
         <v>362</v>
       </c>
       <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="2">
+        <v>13</v>
+      </c>
+      <c r="I51" s="2">
+        <v>4</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>2010</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H52" s="2">
         <v>63</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I52" s="2">
         <v>8</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="D53" s="2">
         <v>2007</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
@@ -3748,13 +3794,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>150</v>
@@ -3765,47 +3811,47 @@
         <v>3</v>
       </c>
       <c r="B56" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="F57" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
-        <v>56</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>150</v>
@@ -3816,13 +3862,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>150</v>
@@ -3833,13 +3879,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>150</v>
@@ -3850,13 +3896,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>150</v>
@@ -3867,13 +3913,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>150</v>
@@ -3884,47 +3930,47 @@
         <v>3</v>
       </c>
       <c r="B63" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="F64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
         <v>50</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2">
-        <v>49</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>150</v>
@@ -3935,47 +3981,47 @@
         <v>3</v>
       </c>
       <c r="B66" s="2">
+        <v>49</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
         <v>48</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="F67" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2">
         <v>47</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2">
-        <v>46</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>150</v>
@@ -3986,13 +4032,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>150</v>
@@ -4003,13 +4049,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>150</v>
@@ -4020,13 +4066,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>150</v>
@@ -4037,13 +4083,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>150</v>
@@ -4054,13 +4100,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>150</v>
@@ -4071,13 +4117,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>150</v>
@@ -4088,13 +4134,13 @@
         <v>3</v>
       </c>
       <c r="B75" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>150</v>
@@ -4105,30 +4151,30 @@
         <v>3</v>
       </c>
       <c r="B76" s="2">
+        <v>39</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>38</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
-        <v>37</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>150</v>
@@ -4139,64 +4185,64 @@
         <v>3</v>
       </c>
       <c r="B78" s="2">
+        <v>37</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
         <v>36</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="F79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
         <v>35</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="F80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
         <v>34</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2">
-        <v>33</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>150</v>
@@ -4207,47 +4253,47 @@
         <v>3</v>
       </c>
       <c r="B82" s="2">
+        <v>33</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
         <v>32</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="F83" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2">
         <v>31</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2">
-        <v>30</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>150</v>
@@ -4258,13 +4304,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>150</v>
@@ -4275,13 +4321,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>150</v>
@@ -4292,13 +4338,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>150</v>
@@ -4312,44 +4358,44 @@
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="F89" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2">
         <v>26</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2">
-        <v>25</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>150</v>
@@ -4360,13 +4406,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>150</v>
@@ -4377,13 +4423,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>150</v>
@@ -4394,13 +4440,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>150</v>
@@ -4411,13 +4457,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>150</v>
@@ -4428,13 +4474,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>150</v>
@@ -4445,13 +4491,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>150</v>
@@ -4462,98 +4508,98 @@
         <v>3</v>
       </c>
       <c r="B97" s="2">
+        <v>19</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
         <v>18</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="F98" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
         <v>17</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="F99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
         <v>16</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="F100" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
         <v>15</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="F101" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2">
         <v>14</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2">
-        <v>13</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>150</v>
@@ -4564,13 +4610,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>150</v>
@@ -4581,13 +4627,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>150</v>
@@ -4598,13 +4644,13 @@
         <v>3</v>
       </c>
       <c r="B105" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>150</v>
@@ -4615,64 +4661,64 @@
         <v>3</v>
       </c>
       <c r="B106" s="2">
+        <v>10</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
         <v>9</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="F107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
         <v>8</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="F108" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2">
         <v>7</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="2">
-        <v>6</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>150</v>
@@ -4683,47 +4729,47 @@
         <v>3</v>
       </c>
       <c r="B110" s="2">
+        <v>6</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="2">
         <v>5</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="2">
+      <c r="F111" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2">
         <v>4</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="2">
-        <v>3</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>150</v>
@@ -4734,47 +4780,47 @@
         <v>3</v>
       </c>
       <c r="B113" s="2">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="2">
         <v>2</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>150</v>
@@ -4782,33 +4828,33 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>150</v>
@@ -4819,30 +4865,49 @@
         <v>97</v>
       </c>
       <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K41" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M2" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
+    <hyperlink ref="Q4" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056A245C-A40B-41D9-976A-AE021AFB00F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A879C-7666-47DE-B994-738567346F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="419">
   <si>
     <t>Nr</t>
   </si>
@@ -1290,6 +1290,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_rct-biostatistics-drugdevelopment-activity-7219424232336670720-hLhE?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Statistical Methods in Medical Research</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1353,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1740,38 +1743,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -1869,7 +1872,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
@@ -1899,7 +1902,7 @@
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>370</v>
       </c>
@@ -1907,13 +1910,13 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>149</v>
@@ -1922,47 +1925,47 @@
         <v>172</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2">
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -2048,7 +2051,7 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>175</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>360</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>362</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>365</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>365</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +3962,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>97</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>97</v>
       </c>
@@ -4902,9 +4905,9 @@
     <hyperlink ref="K41" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="K10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="M2" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
-    <hyperlink ref="Q4" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A879C-7666-47DE-B994-738567346F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C337DA-3412-4A8C-97FC-4DFA7077AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="420">
   <si>
     <t>Nr</t>
   </si>
@@ -1293,6 +1293,9 @@
   </si>
   <si>
     <t>Statistical Methods in Medical Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/bimj.70017</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1749,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -1987,6 +1990,9 @@
       <c r="G6" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>173</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C337DA-3412-4A8C-97FC-4DFA7077AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A48E9C-5CE0-4DF7-8ABF-29F9CBC19222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1271,9 +1271,6 @@
     <t>https://arxiv.org/abs/2410.01478</t>
   </si>
   <si>
-    <t>Yang, G., **Rufibach, K.**, Wolbers, M., Yan, M., Wang, J.</t>
-  </si>
-  <si>
     <t>"6 choose 4": A framework to understand and facilitate discussion of strategies for overall survival safety monitoring</t>
   </si>
   <si>
@@ -1296,6 +1293,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/bimj.70017</t>
+  </si>
+  <si>
+    <t>Yung, G., **Rufibach, K.**, Wolbers, M., Yan, M., Wang, J.</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -1865,13 +1865,13 @@
         <v>410</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>415</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>416</v>
       </c>
       <c r="T2" s="2"/>
     </row>
@@ -1883,13 +1883,13 @@
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1898,10 +1898,10 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="2"/>
     </row>
@@ -1952,7 +1952,7 @@
         <v>386</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>400</v>
@@ -1964,7 +1964,7 @@
         <v>397</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T5" s="2"/>
     </row>
@@ -1991,7 +1991,7 @@
         <v>234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>173</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A48E9C-5CE0-4DF7-8ABF-29F9CBC19222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760657DC-45CF-43E9-BDF2-53437515D97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="421">
   <si>
     <t>Nr</t>
   </si>
@@ -1296,6 +1296,9 @@
   </si>
   <si>
     <t>Yung, G., **Rufibach, K.**, Wolbers, M., Yan, M., Wang, J.</t>
+  </si>
+  <si>
+    <t>113--124</t>
   </si>
 </sst>
 </file>
@@ -1749,35 +1752,35 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.81640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="29.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>370</v>
       </c>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -1968,7 +1971,7 @@
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -2017,47 +2020,38 @@
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>293</v>
+        <v>387</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -2065,29 +2059,47 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D8" s="2">
         <v>2024</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>238</v>
+      </c>
+      <c r="H8" s="2">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -2216,7 +2228,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -2321,7 +2333,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -2558,7 +2570,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2605,7 +2617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
@@ -2716,7 +2728,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>175</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -2929,7 +2941,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -3203,7 +3215,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
@@ -3320,7 +3332,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3612,7 +3624,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>360</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>362</v>
       </c>
@@ -3679,7 +3691,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -3714,7 +3726,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -3749,7 +3761,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>365</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>365</v>
       </c>
@@ -3798,7 +3810,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3827,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -3866,7 +3878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +3895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3934,7 +3946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3951,7 +3963,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +3997,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4048,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4116,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -4172,7 +4184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +4286,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4337,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -4359,7 +4371,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -4376,7 +4388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +4405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -4410,7 +4422,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -4478,7 +4490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -4495,7 +4507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4524,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -4546,7 +4558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -4597,7 +4609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -4614,7 +4626,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -4648,7 +4660,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -4699,7 +4711,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -4716,7 +4728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4762,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -4784,7 +4796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
@@ -4852,7 +4864,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>97</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>97</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760657DC-45CF-43E9-BDF2-53437515D97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92159EA-62A5-44B0-9D91-9C9C57E2012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11235" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2029,7 @@
         <v>373</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>158</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92159EA-62A5-44B0-9D91-9C9C57E2012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FF5E36-DA2E-496A-AC3D-9EC5F2A34A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11235" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="422">
   <si>
     <t>Nr</t>
   </si>
@@ -1299,6 +1299,9 @@
   </si>
   <si>
     <t>113--124</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/09622802241313292</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1755,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1957,6 +1960,9 @@
       <c r="G5" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>400</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FF5E36-DA2E-496A-AC3D-9EC5F2A34A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB393EB-247C-4E81-9CED-932B22A2E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="423">
   <si>
     <t>Nr</t>
   </si>
@@ -1302,6 +1302,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1177/09622802241313292</t>
+  </si>
+  <si>
+    <t>2025+</t>
   </si>
 </sst>
 </file>
@@ -1755,35 +1758,35 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -1881,7 +1884,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
@@ -1911,9 +1914,9 @@
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2">
         <v>45</v>
@@ -1922,23 +1925,23 @@
         <v>394</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>399</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>396</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>395</v>
@@ -1977,7 +1980,7 @@
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>147</v>
@@ -2018,7 +2021,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -2105,7 +2108,7 @@
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>175</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>360</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>362</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>365</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>365</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>97</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>97</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB393EB-247C-4E81-9CED-932B22A2E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C3E60-6795-4533-BF6E-B2E0FDD1F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="424">
   <si>
     <t>Nr</t>
   </si>
@@ -1169,9 +1169,6 @@
     <t>https://insightsengineering.github.io/simIDM/latest-tag/</t>
   </si>
   <si>
-    <t>2024+</t>
-  </si>
-  <si>
     <t>Hampson, L.V. and Degtyarev, E. and Tang, R., and Lin, J. and **Rufibach, K.** and Zheng, C.</t>
   </si>
   <si>
@@ -1305,6 +1302,12 @@
   </si>
   <si>
     <t>2025+</t>
+  </si>
+  <si>
+    <t>Burman, C.F., Collignon, O., Schiel, A., **Rufibach, K.**, Bretz, F., Posch, M.</t>
+  </si>
+  <si>
+    <t>Considerations on the design and analysis of master protocols in confirmatory trials</t>
   </si>
 </sst>
 </file>
@@ -1753,40 +1756,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.81640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="29.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1848,21 +1851,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -1870,35 +1873,23 @@
       <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>415</v>
-      </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1907,351 +1898,334 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>412</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="Q3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="B4" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>414</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>421</v>
+        <v>234</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="N5" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>416</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2025</v>
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>385</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="2">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>420</v>
+        <v>234</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D8" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="H8" s="2">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>293</v>
+        <v>386</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
       <c r="D9" s="2">
         <v>2024</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="H9" s="2">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1223858</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>380</v>
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="H10" s="2">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1223858</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2">
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H11" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>290</v>
+        <v>160</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B12" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D12" s="2">
         <v>2023</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
@@ -2263,30 +2237,48 @@
         <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D13" s="2">
         <v>2023</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
@@ -2298,267 +2290,264 @@
         <v>15</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="2">
         <v>2022</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H15" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2">
         <v>2022</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H16" s="2">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" s="2">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2">
         <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H18" s="2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2">
-        <v>4</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>420</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2">
         <v>2021</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H19" s="2">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2">
         <v>2021</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -2570,296 +2559,299 @@
         <v>20</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B21" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2">
         <v>2021</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H21" s="2">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H22" s="2">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B23" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2">
         <v>2020</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="H23" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2">
-        <v>4</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B24" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2">
         <v>2020</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B25" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H25" s="2">
-        <v>62</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2">
         <v>2019</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H26" s="2">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2">
         <v>2019</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H27" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>150</v>
@@ -2868,678 +2860,678 @@
         <v>236</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B29" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2">
         <v>2016</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H29" s="2">
-        <v>58</v>
-      </c>
-      <c r="I29" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B30" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="2">
         <v>2016</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H30" s="2">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B31" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="2">
         <v>2016</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H31" s="2">
-        <v>26</v>
-      </c>
-      <c r="I31" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B32" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D32" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H32" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H33" s="2">
-        <v>75</v>
-      </c>
-      <c r="I33" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B34" s="2">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="2">
+        <v>75</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="2">
         <v>15</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>2012</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <v>8</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="J35" s="2" t="str">
         <f>"1-29"</f>
         <v>1-29</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="2">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="2">
-        <v>53</v>
-      </c>
-      <c r="I35" s="2">
-        <v>4</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B36" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2">
         <v>2011</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="2">
+        <v>53</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="2">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H37" s="2">
         <v>39</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I37" s="2">
         <v>6</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="J37" s="2" t="str">
         <f>"1-28"</f>
         <v>1-28</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="2">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H37" s="2">
-        <v>66</v>
-      </c>
-      <c r="I37" s="2">
-        <v>4</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="2">
         <v>2010</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H38" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I38" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B39" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="2">
         <v>2010</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H39" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I39" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B40" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2">
         <v>2010</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H40" s="2">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D41" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H41" s="2">
-        <v>31</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B42" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2">
         <v>2009</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H42" s="2">
-        <v>79</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B43" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2">
         <v>2009</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H43" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B44" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D44" s="2">
         <v>2009</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H44" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H45" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D46" s="2">
         <v>2008</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>150</v>
@@ -3551,170 +3543,170 @@
         <v>78</v>
       </c>
       <c r="I46" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H47" s="2">
-        <v>77</v>
-      </c>
-      <c r="I47" s="2">
-        <v>7</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D48" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H48" s="2">
-        <v>2001</v>
+        <v>77</v>
       </c>
       <c r="I48" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2001</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D50" s="2">
         <v>2010</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H50" s="2">
         <v>72</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I50" s="2">
         <v>5</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" s="2">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H50" s="2">
-        <v>15</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D51" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>150</v>
@@ -3723,681 +3715,699 @@
         <v>158</v>
       </c>
       <c r="H51" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="D52" s="2">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>401</v>
+        <v>139</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>402</v>
+        <v>158</v>
       </c>
       <c r="H52" s="2">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="I52" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D53" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="H53" s="2">
+        <v>63</v>
+      </c>
+      <c r="I53" s="2">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2">
         <v>2007</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="K55" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
         <v>60</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="F56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
         <v>59</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
-        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="F58" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
         <v>57</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="F59" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="F60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
         <v>55</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
         <v>53</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
         <v>52</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
-        <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="F65" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
         <v>50</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="F66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
         <v>49</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="F67" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2">
         <v>48</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="F68" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2">
         <v>47</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="F69" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2">
         <v>46</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="F70" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2">
         <v>45</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="F71" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2">
         <v>44</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="F72" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2">
         <v>43</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="F73" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
         <v>42</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="F74" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
         <v>41</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="F75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
         <v>40</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="F76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
         <v>39</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="F77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
         <v>38</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="F78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
         <v>37</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="F79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
         <v>36</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="F80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
         <v>35</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="F81" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
         <v>34</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="F82" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
         <v>33</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="F83" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2">
         <v>32</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="F84" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2">
         <v>31</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="F85" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2">
         <v>30</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="F86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="2">
         <v>29</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="F87" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2">
         <v>28</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="2">
-        <v>27</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4405,536 +4415,553 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2">
+      <c r="F90" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2">
         <v>26</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="F91" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2">
         <v>25</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="F92" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2">
         <v>24</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="F93" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2">
         <v>23</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="F94" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
         <v>22</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="F95" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
         <v>21</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="F96" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
         <v>20</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
         <v>19</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="F98" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
         <v>18</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="F99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
         <v>17</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="F100" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
         <v>16</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="F101" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2">
         <v>15</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="F102" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2">
         <v>14</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="2">
+      <c r="F103" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2">
         <v>13</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="F104" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
         <v>12</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2">
-        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="F107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
         <v>9</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="F108" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2">
         <v>8</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="2">
+      <c r="F109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2">
         <v>7</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="F110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="2">
         <v>6</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="2">
+      <c r="F111" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2">
         <v>5</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="2">
+      <c r="F112" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="2">
         <v>4</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="2">
-        <v>3</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="F113" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="2">
+      <c r="F114" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="2">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="2">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B118" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K41" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M2" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
+    <hyperlink ref="L19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M3" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
+    <hyperlink ref="Q6" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C3E60-6795-4533-BF6E-B2E0FDD1F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA564A-847D-4DE8-B2D8-B29DB7228259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="425">
   <si>
     <t>Nr</t>
   </si>
@@ -1308,6 +1308,9 @@
   </si>
   <si>
     <t>Considerations on the design and analysis of master protocols in confirmatory trials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.70101</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1764,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1963,6 +1966,9 @@
       <c r="G5" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>398</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA564A-847D-4DE8-B2D8-B29DB7228259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868FB44-4F5B-49AA-B987-A8FBA7810818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1262,9 +1262,6 @@
     <t>Asikanius, E., Hofner, B., Hampson, L.V., Wassmer, G., Jennison, C., Mielke, T., Kunz, C.U., **Rufibach, K.**</t>
   </si>
   <si>
-    <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
-  </si>
-  <si>
     <t>https://arxiv.org/abs/2410.01478</t>
   </si>
   <si>
@@ -1311,6 +1308,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/sim.70101</t>
+  </si>
+  <si>
+    <t>Clinical trials with interim analyses: Standardizing Terminology to increase clarity</t>
   </si>
 </sst>
 </file>
@@ -1764,35 +1764,35 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
@@ -1862,13 +1862,13 @@
         <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
@@ -1889,10 +1889,10 @@
         <v>407</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1901,20 +1901,20 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>413</v>
       </c>
-      <c r="Q3" t="s">
-        <v>414</v>
-      </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>370</v>
       </c>
@@ -1922,13 +1922,13 @@
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>149</v>
@@ -1937,14 +1937,14 @@
         <v>172</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>393</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>392</v>
@@ -1967,14 +1967,14 @@
         <v>234</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>398</v>
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>395</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>394</v>
@@ -1994,10 +1994,10 @@
         <v>385</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>399</v>
@@ -2009,11 +2009,11 @@
         <v>396</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>147</v>
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>173</v>
@@ -2054,7 +2054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>386</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>175</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>362</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>365</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>104</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>97</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>97</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>97</v>
       </c>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868FB44-4F5B-49AA-B987-A8FBA7810818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18EC39C-C533-49B2-9E42-4754F283FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1764,7 +1764,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
@@ -1886,13 +1886,13 @@
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>149</v>
@@ -1901,43 +1901,43 @@
         <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q3" t="s">
         <v>413</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2">
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="Q4" t="s">
         <v>413</v>
@@ -4966,7 +4966,7 @@
     <hyperlink ref="L43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="K11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M3" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
+    <hyperlink ref="M4" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
     <hyperlink ref="Q6" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18EC39C-C533-49B2-9E42-4754F283FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F064AB-D21D-4763-9A1B-EB4431D2F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="426">
   <si>
     <t>Nr</t>
   </si>
@@ -1311,6 +1311,9 @@
   </si>
   <si>
     <t>Clinical trials with interim analyses: Standardizing Terminology to increase clarity</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13063-025-08942-3</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1767,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -1925,10 +1928,19 @@
         <v>424</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>238</v>
+      </c>
+      <c r="H4" s="2">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2">
+        <v>247</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>408</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F064AB-D21D-4763-9A1B-EB4431D2F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91F82D2-A161-4853-8332-E5A42DDED422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="427">
   <si>
     <t>Nr</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1186/s13063-025-08942-3</t>
+  </si>
+  <si>
+    <t>Article 247</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1770,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -1921,8 +1924,8 @@
       <c r="C4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>420</v>
+      <c r="D4" s="2">
+        <v>2025</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>424</v>
@@ -1936,8 +1939,8 @@
       <c r="H4" s="2">
         <v>47</v>
       </c>
-      <c r="I4" s="2">
-        <v>247</v>
+      <c r="J4" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>425</v>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91F82D2-A161-4853-8332-E5A42DDED422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A79CB1-3D21-464F-8774-2FD73A7552B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="428">
   <si>
     <t>Nr</t>
   </si>
@@ -1317,6 +1317,9 @@
   </si>
   <si>
     <t>Article 247</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/clarifying-confusions-around-interim-primary-final-and-other-analyses-in-clinical-trial/</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1374,6 +1377,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1767,10 +1773,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -1914,7 +1920,7 @@
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>175</v>
       </c>
@@ -1956,6 +1962,9 @@
       </c>
       <c r="Q4" t="s">
         <v>413</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="T4" s="2"/>
     </row>
@@ -4983,9 +4992,10 @@
     <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="M4" r:id="rId7" xr:uid="{E1B66905-DADF-47A4-8243-F40016C7E8FB}"/>
     <hyperlink ref="Q6" r:id="rId8" xr:uid="{4C08C193-4413-4403-AC10-DF11BF421AE0}"/>
+    <hyperlink ref="R4" r:id="rId9" xr:uid="{12CE3AE1-E6F3-4E8E-8531-D2F2438AE636}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
